--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.262513725039071</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.204250158800335</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2077781394528984</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1124466204545733</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007661532162943609</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.316736873738449</v>
+      </c>
+      <c r="N2">
+        <v>1.301637806401075</v>
+      </c>
+      <c r="O2">
+        <v>2.449547410584174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.660812496713618</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.031301289923249</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1784028137947047</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.09700493208169547</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007772641612786616</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.130004791935356</v>
+      </c>
+      <c r="N3">
+        <v>1.288746565318391</v>
+      </c>
+      <c r="O3">
+        <v>2.166851274065422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.300073657275334</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.92761531198272</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1608177042469521</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.08782859968199119</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007842173548437456</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.018247659722789</v>
+      </c>
+      <c r="N4">
+        <v>1.283506863710514</v>
+      </c>
+      <c r="O4">
+        <v>1.999986250479111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.154923573912299</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8858899336622699</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.15374795684383</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.08415473431460185</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007870873272306057</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.973322720798194</v>
+      </c>
+      <c r="N5">
+        <v>1.281980181548633</v>
+      </c>
+      <c r="O5">
+        <v>1.933456851869465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.130924374306232</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8789905507291849</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.152579381725289</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.08354835069226496</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007875661841378039</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.9658972110000406</v>
+      </c>
+      <c r="N6">
+        <v>1.281761689651304</v>
+      </c>
+      <c r="O6">
+        <v>1.922492528092874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.298109022642393</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.9270505800527076</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1607219904811075</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.08777880094710611</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007842559081642268</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.01763942632698</v>
+      </c>
+      <c r="N7">
+        <v>1.283483890028279</v>
+      </c>
+      <c r="O7">
+        <v>1.999083332633745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.053025129745095</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.144031808588579</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1975448428526363</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1070519289054843</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007699593338921997</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.251679048327887</v>
+      </c>
+      <c r="N8">
+        <v>1.296596512637393</v>
+      </c>
+      <c r="O8">
+        <v>2.350541316245142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.620039290558736</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.594779862135567</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.274232674499828</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1478474763410098</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007427795053769769</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.739445775282874</v>
+      </c>
+      <c r="N9">
+        <v>1.346891936176462</v>
+      </c>
+      <c r="O9">
+        <v>3.104392466341494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6.853134382866301</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.950261738341794</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3347851375917088</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1806151014773789</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007230292969404166</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.125033498882956</v>
+      </c>
+      <c r="N10">
+        <v>1.404380973647463</v>
+      </c>
+      <c r="O10">
+        <v>3.716507415668701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7.439998786024262</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.119779928668493</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3636602478593005</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1964013898179857</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007140074181888334</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.3090753931248</v>
+      </c>
+      <c r="N11">
+        <v>1.436558843767159</v>
+      </c>
+      <c r="O11">
+        <v>4.012923438775658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.666805908213632</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.185359482279296</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3748288321715165</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2025344328596503</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007105768960173807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.380293455647561</v>
+      </c>
+      <c r="N12">
+        <v>1.449774868588236</v>
+      </c>
+      <c r="O12">
+        <v>4.128306054081634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7.617740105051837</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.171169265947526</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3724122800642107</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.2012061529000846</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000711316507757661</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.364882369458144</v>
+      </c>
+      <c r="N13">
+        <v>1.446879713467723</v>
+      </c>
+      <c r="O13">
+        <v>4.10330678714891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7.458561190240744</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.12514569369722</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3645741220047398</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1969026649011312</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007137255269074742</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.314902138025715</v>
+      </c>
+      <c r="N14">
+        <v>1.437624405809402</v>
+      </c>
+      <c r="O14">
+        <v>4.022349595577509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.361683325428885</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.097144301384049</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3598049517195108</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1942878054975097</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007151989897086921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.284495877301325</v>
+      </c>
+      <c r="N15">
+        <v>1.432094994054324</v>
+      </c>
+      <c r="O15">
+        <v>3.973187805063588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6.815371588475784</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.939361776171154</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3329283188107723</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1796034498441301</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007236174361907329</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.113202648730137</v>
+      </c>
+      <c r="N16">
+        <v>1.40241263039664</v>
+      </c>
+      <c r="O16">
+        <v>3.697542151067353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.487417345502593</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.844738388111296</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3168089029653345</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1708390369384247</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007287666008024802</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.010516001905231</v>
+      </c>
+      <c r="N17">
+        <v>1.385853650766165</v>
+      </c>
+      <c r="O17">
+        <v>3.533402712585939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6.301167259363467</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.791029805508686</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3076595585535813</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.1658788078090296</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007317253573675924</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.952246276694183</v>
+      </c>
+      <c r="N18">
+        <v>1.376884959175811</v>
+      </c>
+      <c r="O18">
+        <v>3.440645772488068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6.238491930462203</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.772960840593271</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3045815459647088</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1642124644641285</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007327268814540554</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.932645603276072</v>
+      </c>
+      <c r="N19">
+        <v>1.373939257806398</v>
+      </c>
+      <c r="O19">
+        <v>3.409508459387467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6.522076664381188</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.854735335685234</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.318511919015279</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1717634697703332</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007282188220540569</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.021363234541681</v>
+      </c>
+      <c r="N20">
+        <v>1.387557795091041</v>
+      </c>
+      <c r="O20">
+        <v>3.550701033826442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.505184126482732</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.138623914139885</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3668696356113372</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.1981622359526867</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007130184019070862</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2.32953858848272</v>
+      </c>
+      <c r="N21">
+        <v>1.440313450077014</v>
+      </c>
+      <c r="O21">
+        <v>4.046038578603401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8.174894111987896</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.332410533840061</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3998662006728466</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.2163374830592275</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007029962014878742</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.540018082077864</v>
+      </c>
+      <c r="N22">
+        <v>1.480904953436863</v>
+      </c>
+      <c r="O22">
+        <v>4.388398145110045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>7.814640940905235</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.228125454142912</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.382111284108575</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.2065415276506144</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007083566676839689</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.426741293612309</v>
+      </c>
+      <c r="N23">
+        <v>1.458617273775985</v>
+      </c>
+      <c r="O23">
+        <v>4.203755130861737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6.506400098905317</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.850213580480272</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3177416212865722</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1713452910999251</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007284664770981418</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.01645683474311</v>
+      </c>
+      <c r="N24">
+        <v>1.386785646256811</v>
+      </c>
+      <c r="O24">
+        <v>3.542875491311321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5.184139874091329</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.469306851350382</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2528689099801795</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.1364000301983985</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007500690938982825</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.603506590025205</v>
+      </c>
+      <c r="N25">
+        <v>1.330137186942508</v>
+      </c>
+      <c r="O25">
+        <v>2.891777313550094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.262513725039071</v>
+        <v>1.713113120742094</v>
       </c>
       <c r="C2">
-        <v>1.204250158800335</v>
+        <v>0.2868766561097971</v>
       </c>
       <c r="D2">
-        <v>0.2077781394528984</v>
+        <v>0.1950414840230508</v>
       </c>
       <c r="E2">
-        <v>0.1124466204545733</v>
+        <v>0.02759659388583557</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007661532162943609</v>
+        <v>0.000890821020865668</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.207410670666277</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01874400313991842</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.89162062736105</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3194013771246915</v>
       </c>
       <c r="M2">
-        <v>1.316736873738449</v>
+        <v>0.3984921519050602</v>
       </c>
       <c r="N2">
-        <v>1.301637806401075</v>
+        <v>3.630904098958126</v>
       </c>
       <c r="O2">
-        <v>2.449547410584174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.660812496713618</v>
+        <v>1.549061298052663</v>
       </c>
       <c r="C3">
-        <v>1.031301289923249</v>
+        <v>0.2546515164152368</v>
       </c>
       <c r="D3">
-        <v>0.1784028137947047</v>
+        <v>0.1839341881915999</v>
       </c>
       <c r="E3">
-        <v>0.09700493208169547</v>
+        <v>0.02746142447181299</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007772641612786616</v>
+        <v>0.0008987112243169771</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.140555433177724</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01665240799715306</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.703132145062909</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3021176037473765</v>
       </c>
       <c r="M3">
-        <v>1.130004791935356</v>
+        <v>0.3657391636384375</v>
       </c>
       <c r="N3">
-        <v>1.288746565318391</v>
+        <v>3.607616465805592</v>
       </c>
       <c r="O3">
-        <v>2.166851274065422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.300073657275334</v>
+        <v>1.450844969381336</v>
       </c>
       <c r="C4">
-        <v>0.92761531198272</v>
+        <v>0.2353212771747337</v>
       </c>
       <c r="D4">
-        <v>0.1608177042469521</v>
+        <v>0.1773693986557987</v>
       </c>
       <c r="E4">
-        <v>0.08782859968199119</v>
+        <v>0.02739931504049764</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007842173548437456</v>
+        <v>0.0009037007370273331</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.10183381663883</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01537975410261794</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.590226169168346</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2919286307989282</v>
       </c>
       <c r="M4">
-        <v>1.018247659722789</v>
+        <v>0.3462058697009027</v>
       </c>
       <c r="N4">
-        <v>1.283506863710514</v>
+        <v>3.595761625733218</v>
       </c>
       <c r="O4">
-        <v>1.999986250479111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.154923573912299</v>
+        <v>1.411400303324285</v>
       </c>
       <c r="C5">
-        <v>0.8858899336622699</v>
+        <v>0.2275468856205123</v>
       </c>
       <c r="D5">
-        <v>0.15374795684383</v>
+        <v>0.1747544318241552</v>
       </c>
       <c r="E5">
-        <v>0.08415473431460185</v>
+        <v>0.02737913402686676</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007870873272306057</v>
+        <v>0.0009057716167306761</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.086605501630032</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01486336523920961</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.544864571742607</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2878763334344825</v>
       </c>
       <c r="M5">
-        <v>0.973322720798194</v>
+        <v>0.3383800258811576</v>
       </c>
       <c r="N5">
-        <v>1.281980181548633</v>
+        <v>3.591516100355904</v>
       </c>
       <c r="O5">
-        <v>1.933456851869465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.130924374306232</v>
+        <v>1.404884072308874</v>
       </c>
       <c r="C6">
-        <v>0.8789905507291849</v>
+        <v>0.226261834810785</v>
       </c>
       <c r="D6">
-        <v>0.152579381725289</v>
+        <v>0.1743237474795336</v>
       </c>
       <c r="E6">
-        <v>0.08354835069226496</v>
+        <v>0.0273760893594952</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007875661841378039</v>
+        <v>0.0009061177893717042</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.084109178569278</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01477773469079402</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.537369744510613</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.287209294057746</v>
       </c>
       <c r="M6">
-        <v>0.9658972110000406</v>
+        <v>0.3370883449033997</v>
       </c>
       <c r="N6">
-        <v>1.281761689651304</v>
+        <v>3.59084568114487</v>
       </c>
       <c r="O6">
-        <v>1.922492528092874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.298109022642393</v>
+        <v>1.45031072587534</v>
       </c>
       <c r="C7">
-        <v>0.9270505800527076</v>
+        <v>0.2352160276640092</v>
       </c>
       <c r="D7">
-        <v>0.1607219904811075</v>
+        <v>0.1773338933737847</v>
       </c>
       <c r="E7">
-        <v>0.08777880094710611</v>
+        <v>0.02739902226006485</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007842559081642268</v>
+        <v>0.0009037285119276129</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.10162625454862</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0153727817526832</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.589611860114985</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2918735844998821</v>
       </c>
       <c r="M7">
-        <v>1.01763942632698</v>
+        <v>0.3460997985096981</v>
       </c>
       <c r="N7">
-        <v>1.283483890028279</v>
+        <v>3.595702035671394</v>
       </c>
       <c r="O7">
-        <v>1.999083332633745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.053025129745095</v>
+        <v>1.655993864699468</v>
       </c>
       <c r="C8">
-        <v>1.144031808588579</v>
+        <v>0.2756633323974143</v>
       </c>
       <c r="D8">
-        <v>0.1975448428526363</v>
+        <v>0.1911562860712763</v>
       </c>
       <c r="E8">
-        <v>0.1070519289054843</v>
+        <v>0.02754557585661566</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007699593338921997</v>
+        <v>0.0008935122230959862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.183854413590268</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01801998414644146</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.826004135547862</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3133499036832461</v>
       </c>
       <c r="M8">
-        <v>1.251679048327887</v>
+        <v>0.3870722463074472</v>
       </c>
       <c r="N8">
-        <v>1.296596512637393</v>
+        <v>3.622349085034841</v>
       </c>
       <c r="O8">
-        <v>2.350541316245142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.620039290558736</v>
+        <v>2.081861244135268</v>
       </c>
       <c r="C9">
-        <v>1.594779862135567</v>
+        <v>0.3591867742065915</v>
       </c>
       <c r="D9">
-        <v>0.274232674499828</v>
+        <v>0.2204796395136555</v>
       </c>
       <c r="E9">
-        <v>0.1478474763410098</v>
+        <v>0.02800477987312711</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007427795053769769</v>
+        <v>0.0008745702156240931</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.365265735733132</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02333720061194811</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.31507726560281</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3591528450252213</v>
       </c>
       <c r="M9">
-        <v>1.739445775282874</v>
+        <v>0.4725424246958809</v>
       </c>
       <c r="N9">
-        <v>1.346891936176462</v>
+        <v>3.695431432154322</v>
       </c>
       <c r="O9">
-        <v>3.104392466341494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.853134382866301</v>
+        <v>2.412460577433933</v>
       </c>
       <c r="C10">
-        <v>1.950261738341794</v>
+        <v>0.4240215579461051</v>
       </c>
       <c r="D10">
-        <v>0.3347851375917088</v>
+        <v>0.243672099781719</v>
       </c>
       <c r="E10">
-        <v>0.1806151014773789</v>
+        <v>0.02845632623584837</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007230292969404166</v>
+        <v>0.0008612316930998141</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.513441162143067</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02737321868572096</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.694689093536738</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.395558286316799</v>
       </c>
       <c r="M10">
-        <v>2.125033498882956</v>
+        <v>0.5392967153309698</v>
       </c>
       <c r="N10">
-        <v>1.404380973647463</v>
+        <v>3.764030539052044</v>
       </c>
       <c r="O10">
-        <v>3.716507415668701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.439998786024262</v>
+        <v>2.567703914238166</v>
       </c>
       <c r="C11">
-        <v>2.119779928668493</v>
+        <v>0.4544985329098949</v>
       </c>
       <c r="D11">
-        <v>0.3636602478593005</v>
+        <v>0.254655048283368</v>
       </c>
       <c r="E11">
-        <v>0.1964013898179857</v>
+        <v>0.02868891093514847</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007140074181888334</v>
+        <v>0.0008552675335532165</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.584736937124148</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02925071595961271</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.872979643230423</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4128448748234348</v>
       </c>
       <c r="M11">
-        <v>2.3090753931248</v>
+        <v>0.5707342743954982</v>
       </c>
       <c r="N11">
-        <v>1.436558843767159</v>
+        <v>3.799030681473909</v>
       </c>
       <c r="O11">
-        <v>4.012923438775658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.666805908213632</v>
+        <v>2.627281560990752</v>
       </c>
       <c r="C12">
-        <v>2.185359482279296</v>
+        <v>0.4662022720688697</v>
       </c>
       <c r="D12">
-        <v>0.3748288321715165</v>
+        <v>0.2588831159988132</v>
       </c>
       <c r="E12">
-        <v>0.2025344328596503</v>
+        <v>0.02878111466273658</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007105768960173807</v>
+        <v>0.0008530219593048328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.612355452812622</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0299688962968645</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.941410723938077</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4195070518125164</v>
       </c>
       <c r="M12">
-        <v>2.380293455647561</v>
+        <v>0.582812412855418</v>
       </c>
       <c r="N12">
-        <v>1.449774868588236</v>
+        <v>3.812882319883073</v>
       </c>
       <c r="O12">
-        <v>4.128306054081634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.617740105051837</v>
+        <v>2.614413711524719</v>
       </c>
       <c r="C13">
-        <v>2.171169265947526</v>
+        <v>0.4636740563337014</v>
       </c>
       <c r="D13">
-        <v>0.3724122800642107</v>
+        <v>0.2579693371616543</v>
       </c>
       <c r="E13">
-        <v>0.2012061529000846</v>
+        <v>0.02876106951430657</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000711316507757661</v>
+        <v>0.0008535050427481616</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.60637867675095</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02981388109738603</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.926630218948674</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4180668666023308</v>
       </c>
       <c r="M13">
-        <v>2.364882369458144</v>
+        <v>0.5802031239611694</v>
       </c>
       <c r="N13">
-        <v>1.446879713467723</v>
+        <v>3.809871636544983</v>
       </c>
       <c r="O13">
-        <v>4.10330678714891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.458561190240744</v>
+        <v>2.572588995740603</v>
       </c>
       <c r="C14">
-        <v>2.12514569369722</v>
+        <v>0.4554580131998023</v>
       </c>
       <c r="D14">
-        <v>0.3645741220047398</v>
+        <v>0.2550014678928392</v>
       </c>
       <c r="E14">
-        <v>0.1969026649011312</v>
+        <v>0.02869641248519628</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007137255269074742</v>
+        <v>0.0008550825419056195</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.586996322674366</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0293096488709601</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.878590467509724</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.413390576739971</v>
       </c>
       <c r="M14">
-        <v>2.314902138025715</v>
+        <v>0.5717243554774569</v>
       </c>
       <c r="N14">
-        <v>1.437624405809402</v>
+        <v>3.800157961929074</v>
       </c>
       <c r="O14">
-        <v>4.022349595577509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.361683325428885</v>
+        <v>2.547076002488438</v>
       </c>
       <c r="C15">
-        <v>2.097144301384049</v>
+        <v>0.450447323254167</v>
       </c>
       <c r="D15">
-        <v>0.3598049517195108</v>
+        <v>0.2531927725394638</v>
       </c>
       <c r="E15">
-        <v>0.1942878054975097</v>
+        <v>0.02865735288782822</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007151989897086921</v>
+        <v>0.0008560504266354908</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.575206784873004</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02900177087714795</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.84928755656162</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4105417084955292</v>
       </c>
       <c r="M15">
-        <v>2.284495877301325</v>
+        <v>0.5665540629080468</v>
       </c>
       <c r="N15">
-        <v>1.432094994054324</v>
+        <v>3.794287564483938</v>
       </c>
       <c r="O15">
-        <v>3.973187805063588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.815371588475784</v>
+        <v>2.402420387329926</v>
       </c>
       <c r="C16">
-        <v>1.939361776171154</v>
+        <v>0.4220513747199561</v>
       </c>
       <c r="D16">
-        <v>0.3329283188107723</v>
+        <v>0.2429636127289569</v>
       </c>
       <c r="E16">
-        <v>0.1796034498441301</v>
+        <v>0.02844169146325459</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007236174361907329</v>
+        <v>0.0008616233856849812</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.508865153390701</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02725145804506468</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.683159316002786</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3944441458557293</v>
       </c>
       <c r="M16">
-        <v>2.113202648730137</v>
+        <v>0.5372653570338883</v>
       </c>
       <c r="N16">
-        <v>1.40241263039664</v>
+        <v>3.761823879558591</v>
       </c>
       <c r="O16">
-        <v>3.697542151067353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.487417345502593</v>
+        <v>2.314984385180196</v>
       </c>
       <c r="C17">
-        <v>1.844738388111296</v>
+        <v>0.4048976877426753</v>
       </c>
       <c r="D17">
-        <v>0.3168089029653345</v>
+        <v>0.2368038041336291</v>
       </c>
       <c r="E17">
-        <v>0.1708390369384247</v>
+        <v>0.02831650009417341</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007287666008024802</v>
+        <v>0.0008650674079659689</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.469204356696096</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02618916750180844</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.582755073771636</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3847626383179801</v>
       </c>
       <c r="M17">
-        <v>2.010516001905231</v>
+        <v>0.5195851034947196</v>
       </c>
       <c r="N17">
-        <v>1.385853650766165</v>
+        <v>3.742915601138208</v>
       </c>
       <c r="O17">
-        <v>3.533402712585939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.301167259363467</v>
+        <v>2.265144096345352</v>
       </c>
       <c r="C18">
-        <v>1.791029805508686</v>
+        <v>0.3951224796297765</v>
       </c>
       <c r="D18">
-        <v>0.3076595585535813</v>
+        <v>0.2333011103751517</v>
       </c>
       <c r="E18">
-        <v>0.1658788078090296</v>
+        <v>0.02824703646325499</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007317253573675924</v>
+        <v>0.000867058199495588</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.446754639082528</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02558198893047603</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.525525312342353</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3792616082097311</v>
       </c>
       <c r="M18">
-        <v>1.952246276694183</v>
+        <v>0.50951538555816</v>
       </c>
       <c r="N18">
-        <v>1.376884959175811</v>
+        <v>3.732393721021964</v>
       </c>
       <c r="O18">
-        <v>3.440645772488068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.238491930462203</v>
+        <v>2.248343758326541</v>
       </c>
       <c r="C19">
-        <v>1.772960840593271</v>
+        <v>0.3918278029320561</v>
       </c>
       <c r="D19">
-        <v>0.3045815459647088</v>
+        <v>0.2321218767465609</v>
       </c>
       <c r="E19">
-        <v>0.1642124644641285</v>
+        <v>0.02822394770051417</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007327268814540554</v>
+        <v>0.0008677340013219399</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.439213995080706</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02537702960301402</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.506234451941225</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3774103114894558</v>
       </c>
       <c r="M19">
-        <v>1.932645603276072</v>
+        <v>0.5061224818710102</v>
       </c>
       <c r="N19">
-        <v>1.373939257806398</v>
+        <v>3.728890435768989</v>
       </c>
       <c r="O19">
-        <v>3.409508459387467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.522076664381188</v>
+        <v>2.324244823643198</v>
       </c>
       <c r="C20">
-        <v>1.854735335685234</v>
+        <v>0.4067141473283868</v>
       </c>
       <c r="D20">
-        <v>0.318511919015279</v>
+        <v>0.2374553116017637</v>
       </c>
       <c r="E20">
-        <v>0.1717634697703332</v>
+        <v>0.02832956219779703</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007282188220540569</v>
+        <v>0.000864699776881923</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.473388417334604</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02630184591970064</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.593388685501822</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3857861822643116</v>
       </c>
       <c r="M20">
-        <v>2.021363234541681</v>
+        <v>0.5214567649724842</v>
       </c>
       <c r="N20">
-        <v>1.387557795091041</v>
+        <v>3.744891456884915</v>
       </c>
       <c r="O20">
-        <v>3.550701033826442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.505184126482732</v>
+        <v>2.584851688957883</v>
       </c>
       <c r="C21">
-        <v>2.138623914139885</v>
+        <v>0.4578666640937854</v>
       </c>
       <c r="D21">
-        <v>0.3668696356113372</v>
+        <v>0.2558712703265797</v>
       </c>
       <c r="E21">
-        <v>0.1981622359526867</v>
+        <v>0.02871528987668093</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007130184019070862</v>
+        <v>0.0008546188581716192</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.592672033870045</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02945754768295572</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.892675095568563</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4147608645280059</v>
       </c>
       <c r="M21">
-        <v>2.32953858848272</v>
+        <v>0.5742099030832151</v>
       </c>
       <c r="N21">
-        <v>1.440313450077014</v>
+        <v>3.802994432331815</v>
       </c>
       <c r="O21">
-        <v>4.046038578603401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.174894111987896</v>
+        <v>2.759830841954852</v>
       </c>
       <c r="C22">
-        <v>2.332410533840061</v>
+        <v>0.4922583025872029</v>
       </c>
       <c r="D22">
-        <v>0.3998662006728466</v>
+        <v>0.2683134546309134</v>
       </c>
       <c r="E22">
-        <v>0.2163374830592275</v>
+        <v>0.02899157298817379</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007029962014878742</v>
+        <v>0.0008481046520256836</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.674280050190262</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03156271118727361</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.09367762575215</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4343807790247354</v>
       </c>
       <c r="M22">
-        <v>2.540018082077864</v>
+        <v>0.6097085702678555</v>
       </c>
       <c r="N22">
-        <v>1.480904953436863</v>
+        <v>3.844481456273343</v>
       </c>
       <c r="O22">
-        <v>4.388398145110045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.814640940905235</v>
+        <v>2.665981652845517</v>
       </c>
       <c r="C23">
-        <v>2.228125454142912</v>
+        <v>0.4738072277860113</v>
       </c>
       <c r="D23">
-        <v>0.382111284108575</v>
+        <v>0.2616331863434453</v>
       </c>
       <c r="E23">
-        <v>0.2065415276506144</v>
+        <v>0.02884182257134071</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007083566676839689</v>
+        <v>0.000851575319714886</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.630368434458504</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03043478494770824</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.985864697985221</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4238424976713446</v>
       </c>
       <c r="M23">
-        <v>2.426741293612309</v>
+        <v>0.5906617975010633</v>
       </c>
       <c r="N23">
-        <v>1.458617273775985</v>
+        <v>3.821998721379316</v>
       </c>
       <c r="O23">
-        <v>4.203755130861737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.506400098905317</v>
+        <v>2.320056853682729</v>
       </c>
       <c r="C24">
-        <v>1.850213580480272</v>
+        <v>0.4058926575602015</v>
       </c>
       <c r="D24">
-        <v>0.3177416212865722</v>
+        <v>0.2371606451601735</v>
       </c>
       <c r="E24">
-        <v>0.1713452910999251</v>
+        <v>0.02832364901734596</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007284664770981418</v>
+        <v>0.0008648659492534659</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.471495712257507</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02625089305284334</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.588579699220475</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3853232364676558</v>
       </c>
       <c r="M24">
-        <v>2.01645683474311</v>
+        <v>0.5206102926839691</v>
       </c>
       <c r="N24">
-        <v>1.386785646256811</v>
+        <v>3.743997090129909</v>
       </c>
       <c r="O24">
-        <v>3.542875491311321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.184139874091329</v>
+        <v>1.963853336560163</v>
       </c>
       <c r="C25">
-        <v>1.469306851350382</v>
+        <v>0.3360530983414378</v>
       </c>
       <c r="D25">
-        <v>0.2528689099801795</v>
+        <v>0.2122805349605557</v>
       </c>
       <c r="E25">
-        <v>0.1364000301983985</v>
+        <v>0.02786124233827802</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007500690938982825</v>
+        <v>0.0008795861986297456</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.313777402226137</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02188014723824239</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.179577585836853</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.346317837339754</v>
       </c>
       <c r="M25">
-        <v>1.603506590025205</v>
+        <v>0.4487905190962636</v>
       </c>
       <c r="N25">
-        <v>1.330137186942508</v>
+        <v>3.673216223897697</v>
       </c>
       <c r="O25">
-        <v>2.891777313550094</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.713113120742094</v>
+        <v>2.415233185193614</v>
       </c>
       <c r="C2">
-        <v>0.2868766561097971</v>
+        <v>0.2383185235071323</v>
       </c>
       <c r="D2">
-        <v>0.1950414840230508</v>
+        <v>0.3914680602252503</v>
       </c>
       <c r="E2">
-        <v>0.02759659388583557</v>
+        <v>0.08201193451269972</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000890821020865668</v>
+        <v>0.002730821100359145</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.207410670666277</v>
+        <v>3.760105428490434</v>
       </c>
       <c r="J2">
-        <v>0.01874400313991842</v>
+        <v>0.01429883411345045</v>
       </c>
       <c r="K2">
-        <v>1.89162062736105</v>
+        <v>2.39086458928</v>
       </c>
       <c r="L2">
-        <v>0.3194013771246915</v>
+        <v>0.6317356454288756</v>
       </c>
       <c r="M2">
-        <v>0.3984921519050602</v>
+        <v>0.6434664213387506</v>
       </c>
       <c r="N2">
-        <v>3.630904098958126</v>
+        <v>5.925080115494893</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.549061298052663</v>
+        <v>2.389524415994202</v>
       </c>
       <c r="C3">
-        <v>0.2546515164152368</v>
+        <v>0.2309697580486443</v>
       </c>
       <c r="D3">
-        <v>0.1839341881915999</v>
+        <v>0.3907700879249347</v>
       </c>
       <c r="E3">
-        <v>0.02746142447181299</v>
+        <v>0.08227695199060303</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008987112243169771</v>
+        <v>0.002735772874106025</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.140555433177724</v>
+        <v>3.751328576363932</v>
       </c>
       <c r="J3">
-        <v>0.01665240799715306</v>
+        <v>0.01358858181872691</v>
       </c>
       <c r="K3">
-        <v>1.703132145062909</v>
+        <v>2.35787048725075</v>
       </c>
       <c r="L3">
-        <v>0.3021176037473765</v>
+        <v>0.6305845061558841</v>
       </c>
       <c r="M3">
-        <v>0.3657391636384375</v>
+        <v>0.6390979676655562</v>
       </c>
       <c r="N3">
-        <v>3.607616465805592</v>
+        <v>5.919947293002451</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.450844969381336</v>
+        <v>2.375007363536241</v>
       </c>
       <c r="C4">
-        <v>0.2353212771747337</v>
+        <v>0.2265926391253004</v>
       </c>
       <c r="D4">
-        <v>0.1773693986557987</v>
+        <v>0.3904934815317631</v>
       </c>
       <c r="E4">
-        <v>0.02739931504049764</v>
+        <v>0.08245716340387599</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009037007370273331</v>
+        <v>0.002738975076443583</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.10183381663883</v>
+        <v>3.746951151975409</v>
       </c>
       <c r="J4">
-        <v>0.01537975410261794</v>
+        <v>0.01314645017480487</v>
       </c>
       <c r="K4">
-        <v>1.590226169168346</v>
+        <v>2.338898486097435</v>
       </c>
       <c r="L4">
-        <v>0.2919286307989282</v>
+        <v>0.6301170709420347</v>
       </c>
       <c r="M4">
-        <v>0.3462058697009027</v>
+        <v>0.6367199781001744</v>
       </c>
       <c r="N4">
-        <v>3.595761625733218</v>
+        <v>5.917686977726007</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.411400303324285</v>
+        <v>2.369410588133206</v>
       </c>
       <c r="C5">
-        <v>0.2275468856205123</v>
+        <v>0.2248427713347496</v>
       </c>
       <c r="D5">
-        <v>0.1747544318241552</v>
+        <v>0.3904190194196531</v>
       </c>
       <c r="E5">
-        <v>0.02737913402686676</v>
+        <v>0.08253501030780441</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009057716167306761</v>
+        <v>0.002740320817959985</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.086605501630032</v>
+        <v>3.745421742804027</v>
       </c>
       <c r="J5">
-        <v>0.01486336523920961</v>
+        <v>0.01296474381947377</v>
       </c>
       <c r="K5">
-        <v>1.544864571742607</v>
+        <v>2.331490688639576</v>
       </c>
       <c r="L5">
-        <v>0.2878763334344825</v>
+        <v>0.6299868384497316</v>
       </c>
       <c r="M5">
-        <v>0.3383800258811576</v>
+        <v>0.6358274853006307</v>
       </c>
       <c r="N5">
-        <v>3.591516100355904</v>
+        <v>5.916989906162982</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.404884072308874</v>
+        <v>2.368500521344401</v>
       </c>
       <c r="C6">
-        <v>0.226261834810785</v>
+        <v>0.2245542478372045</v>
       </c>
       <c r="D6">
-        <v>0.1743237474795336</v>
+        <v>0.3904089671143254</v>
       </c>
       <c r="E6">
-        <v>0.0273760893594952</v>
+        <v>0.08254820337305802</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009061177893717042</v>
+        <v>0.002740546746430583</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.084109178569278</v>
+        <v>3.745183154022214</v>
       </c>
       <c r="J6">
-        <v>0.01477773469079402</v>
+        <v>0.01293447846822282</v>
       </c>
       <c r="K6">
-        <v>1.537369744510613</v>
+        <v>2.330280163583836</v>
       </c>
       <c r="L6">
-        <v>0.287209294057746</v>
+        <v>0.6299688542626072</v>
       </c>
       <c r="M6">
-        <v>0.3370883449033997</v>
+        <v>0.6356839129189638</v>
       </c>
       <c r="N6">
-        <v>3.59084568114487</v>
+        <v>5.916887686041463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.45031072587534</v>
+        <v>2.374930591503784</v>
       </c>
       <c r="C7">
-        <v>0.2352160276640092</v>
+        <v>0.2265689029168243</v>
       </c>
       <c r="D7">
-        <v>0.1773338933737847</v>
+        <v>0.3904923223431354</v>
       </c>
       <c r="E7">
-        <v>0.02739902226006485</v>
+        <v>0.08245819540594024</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009037285119276129</v>
+        <v>0.00273899306034462</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.10162625454862</v>
+        <v>3.74692949561188</v>
       </c>
       <c r="J7">
-        <v>0.0153727817526832</v>
+        <v>0.01314400585344444</v>
       </c>
       <c r="K7">
-        <v>1.589611860114985</v>
+        <v>2.338797272398551</v>
       </c>
       <c r="L7">
-        <v>0.2918735844998821</v>
+        <v>0.6301150705458411</v>
       </c>
       <c r="M7">
-        <v>0.3460997985096981</v>
+        <v>0.6367076315875266</v>
       </c>
       <c r="N7">
-        <v>3.595702035671394</v>
+        <v>5.917676669857769</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.655993864699468</v>
+        <v>2.406105641426024</v>
       </c>
       <c r="C8">
-        <v>0.2756633323974143</v>
+        <v>0.2357565656562315</v>
       </c>
       <c r="D8">
-        <v>0.1911562860712763</v>
+        <v>0.3911958892372667</v>
       </c>
       <c r="E8">
-        <v>0.02754557585661566</v>
+        <v>0.08209968936011514</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008935122230959862</v>
+        <v>0.002732494972490339</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.183854413590268</v>
+        <v>3.756869233987899</v>
       </c>
       <c r="J8">
-        <v>0.01801998414644146</v>
+        <v>0.01405518114083293</v>
       </c>
       <c r="K8">
-        <v>1.826004135547862</v>
+        <v>2.379221153337795</v>
       </c>
       <c r="L8">
-        <v>0.3133499036832461</v>
+        <v>0.6312890854045037</v>
       </c>
       <c r="M8">
-        <v>0.3870722463074472</v>
+        <v>0.6418970553495953</v>
       </c>
       <c r="N8">
-        <v>3.622349085034841</v>
+        <v>5.923125276453504</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.081861244135268</v>
+        <v>2.477303745054883</v>
       </c>
       <c r="C9">
-        <v>0.3591867742065915</v>
+        <v>0.254851637028878</v>
       </c>
       <c r="D9">
-        <v>0.2204796395136555</v>
+        <v>0.3937796472056476</v>
       </c>
       <c r="E9">
-        <v>0.02800477987312711</v>
+        <v>0.08153494325874444</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008745702156240931</v>
+        <v>0.002721029903768102</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.365265735733132</v>
+        <v>3.784389261517589</v>
       </c>
       <c r="J9">
-        <v>0.02333720061194811</v>
+        <v>0.01579494035311768</v>
       </c>
       <c r="K9">
-        <v>2.31507726560281</v>
+        <v>2.468710606763352</v>
       </c>
       <c r="L9">
-        <v>0.3591528450252213</v>
+        <v>0.6354887834626197</v>
       </c>
       <c r="M9">
-        <v>0.4725424246958809</v>
+        <v>0.6544869171965857</v>
       </c>
       <c r="N9">
-        <v>3.695431432154322</v>
+        <v>5.940888784238467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.412460577433933</v>
+        <v>2.535759877843702</v>
       </c>
       <c r="C10">
-        <v>0.4240215579461051</v>
+        <v>0.2695488496148357</v>
       </c>
       <c r="D10">
-        <v>0.243672099781719</v>
+        <v>0.3964105550820562</v>
       </c>
       <c r="E10">
-        <v>0.02845632623584837</v>
+        <v>0.08120368438787473</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008612316930998141</v>
+        <v>0.002713376875372282</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.513441162143067</v>
+        <v>3.809510541820288</v>
       </c>
       <c r="J10">
-        <v>0.02737321868572096</v>
+        <v>0.01704568686866637</v>
       </c>
       <c r="K10">
-        <v>2.694689093536738</v>
+        <v>2.540713803487506</v>
       </c>
       <c r="L10">
-        <v>0.395558286316799</v>
+        <v>0.6397297826324433</v>
       </c>
       <c r="M10">
-        <v>0.5392967153309698</v>
+        <v>0.6652090788465372</v>
       </c>
       <c r="N10">
-        <v>3.764030539052044</v>
+        <v>5.958269283962863</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.567703914238166</v>
+        <v>2.563691174437679</v>
       </c>
       <c r="C11">
-        <v>0.4544985329098949</v>
+        <v>0.2763825277848184</v>
       </c>
       <c r="D11">
-        <v>0.254655048283368</v>
+        <v>0.3977662738965932</v>
       </c>
       <c r="E11">
-        <v>0.02868891093514847</v>
+        <v>0.08107101904328218</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008552675335532165</v>
+        <v>0.002710060769834278</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.584736937124148</v>
+        <v>3.822005596589548</v>
       </c>
       <c r="J11">
-        <v>0.02925071595961271</v>
+        <v>0.01760899248397152</v>
       </c>
       <c r="K11">
-        <v>2.872979643230423</v>
+        <v>2.574834707441454</v>
       </c>
       <c r="L11">
-        <v>0.4128448748234348</v>
+        <v>0.6419098685100408</v>
       </c>
       <c r="M11">
-        <v>0.5707342743954982</v>
+        <v>0.6704070022963577</v>
       </c>
       <c r="N11">
-        <v>3.799030681473909</v>
+        <v>5.967119712353536</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.627281560990752</v>
+        <v>2.574460718210275</v>
       </c>
       <c r="C12">
-        <v>0.4662022720688697</v>
+        <v>0.2789916896160776</v>
       </c>
       <c r="D12">
-        <v>0.2588831159988132</v>
+        <v>0.3983024690668202</v>
       </c>
       <c r="E12">
-        <v>0.02878111466273658</v>
+        <v>0.08102336337637794</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008530219593048328</v>
+        <v>0.002708828677751022</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.612355452812622</v>
+        <v>3.826890709020006</v>
       </c>
       <c r="J12">
-        <v>0.0299688962968645</v>
+        <v>0.01782150672204708</v>
       </c>
       <c r="K12">
-        <v>2.941410723938077</v>
+        <v>2.587952203701377</v>
       </c>
       <c r="L12">
-        <v>0.4195070518125164</v>
+        <v>0.642771448624444</v>
       </c>
       <c r="M12">
-        <v>0.582812412855418</v>
+        <v>0.6724213869030109</v>
       </c>
       <c r="N12">
-        <v>3.812882319883073</v>
+        <v>5.97060708910476</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.614413711524719</v>
+        <v>2.572132739988717</v>
       </c>
       <c r="C13">
-        <v>0.4636740563337014</v>
+        <v>0.2784288061289999</v>
       </c>
       <c r="D13">
-        <v>0.2579693371616543</v>
+        <v>0.3981859757603416</v>
       </c>
       <c r="E13">
-        <v>0.02876106951430657</v>
+        <v>0.08103351221268795</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008535050427481616</v>
+        <v>0.002709092981422591</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.60637867675095</v>
+        <v>3.825831784755351</v>
       </c>
       <c r="J13">
-        <v>0.02981388109738603</v>
+        <v>0.01777577316613943</v>
       </c>
       <c r="K13">
-        <v>2.926630218948674</v>
+        <v>2.585118367087034</v>
       </c>
       <c r="L13">
-        <v>0.4180668666023308</v>
+        <v>0.6425842901644927</v>
       </c>
       <c r="M13">
-        <v>0.5802031239611694</v>
+        <v>0.6719855056674646</v>
       </c>
       <c r="N13">
-        <v>3.809871636544983</v>
+        <v>5.969849972597558</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.572588995740603</v>
+        <v>2.564573332025532</v>
       </c>
       <c r="C14">
-        <v>0.4554580131998023</v>
+        <v>0.2765967554959161</v>
       </c>
       <c r="D14">
-        <v>0.2550014678928392</v>
+        <v>0.3978099299765745</v>
       </c>
       <c r="E14">
-        <v>0.02869641248519628</v>
+        <v>0.08106704669808273</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008550825419056195</v>
+        <v>0.00270995893167203</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.586996322674366</v>
+        <v>3.822404421001082</v>
       </c>
       <c r="J14">
-        <v>0.0293096488709601</v>
+        <v>0.0176264920398701</v>
       </c>
       <c r="K14">
-        <v>2.878590467509724</v>
+        <v>2.575909949507178</v>
       </c>
       <c r="L14">
-        <v>0.413390576739971</v>
+        <v>0.6419800293783595</v>
       </c>
       <c r="M14">
-        <v>0.5717243554774569</v>
+        <v>0.6705718042678157</v>
       </c>
       <c r="N14">
-        <v>3.800157961929074</v>
+        <v>5.967403896059352</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.547076002488438</v>
+        <v>2.559968053931073</v>
       </c>
       <c r="C15">
-        <v>0.450447323254167</v>
+        <v>0.2754773620964954</v>
       </c>
       <c r="D15">
-        <v>0.2531927725394638</v>
+        <v>0.3975825610513368</v>
       </c>
       <c r="E15">
-        <v>0.02865735288782822</v>
+        <v>0.08108792346405025</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008560504266354908</v>
+        <v>0.002710492427164075</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.575206784873004</v>
+        <v>3.820325053993216</v>
       </c>
       <c r="J15">
-        <v>0.02900177087714795</v>
+        <v>0.0175349497117665</v>
       </c>
       <c r="K15">
-        <v>2.84928755656162</v>
+        <v>2.570295143114208</v>
       </c>
       <c r="L15">
-        <v>0.4105417084955292</v>
+        <v>0.6416145930495674</v>
       </c>
       <c r="M15">
-        <v>0.5665540629080468</v>
+        <v>0.669711866957492</v>
       </c>
       <c r="N15">
-        <v>3.794287564483938</v>
+        <v>5.965923308470224</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.402420387329926</v>
+        <v>2.533961449988794</v>
       </c>
       <c r="C16">
-        <v>0.4220513747199561</v>
+        <v>0.2691052392745235</v>
       </c>
       <c r="D16">
-        <v>0.2429636127289569</v>
+        <v>0.3963251501069891</v>
       </c>
       <c r="E16">
-        <v>0.02844169146325459</v>
+        <v>0.08121271622646464</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008616233856849812</v>
+        <v>0.002713596906063875</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.508865153390701</v>
+        <v>3.808715439465701</v>
       </c>
       <c r="J16">
-        <v>0.02725145804506468</v>
+        <v>0.01700876099864246</v>
       </c>
       <c r="K16">
-        <v>2.683159316002786</v>
+        <v>2.538511430449915</v>
       </c>
       <c r="L16">
-        <v>0.3944441458557293</v>
+        <v>0.6395923527918086</v>
       </c>
       <c r="M16">
-        <v>0.5372653570338883</v>
+        <v>0.6648758266966297</v>
       </c>
       <c r="N16">
-        <v>3.761823879558591</v>
+        <v>5.957709896980077</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.314984385180196</v>
+        <v>2.518350249613206</v>
       </c>
       <c r="C17">
-        <v>0.4048976877426753</v>
+        <v>0.2652341108531289</v>
       </c>
       <c r="D17">
-        <v>0.2368038041336291</v>
+        <v>0.3955944423976518</v>
       </c>
       <c r="E17">
-        <v>0.02831650009417341</v>
+        <v>0.0812938820721012</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008650674079659689</v>
+        <v>0.002715543650929849</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.469204356696096</v>
+        <v>3.801866690553055</v>
       </c>
       <c r="J17">
-        <v>0.02618916750180844</v>
+        <v>0.01668452253735708</v>
       </c>
       <c r="K17">
-        <v>2.582755073771636</v>
+        <v>2.519363215123747</v>
       </c>
       <c r="L17">
-        <v>0.3847626383179801</v>
+        <v>0.6384159889445016</v>
       </c>
       <c r="M17">
-        <v>0.5195851034947196</v>
+        <v>0.6619911066221249</v>
       </c>
       <c r="N17">
-        <v>3.742915601138208</v>
+        <v>5.952913124534774</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.265144096345352</v>
+        <v>2.50949716276449</v>
       </c>
       <c r="C18">
-        <v>0.3951224796297765</v>
+        <v>0.2630214475023536</v>
       </c>
       <c r="D18">
-        <v>0.2333011103751517</v>
+        <v>0.3951891177175071</v>
       </c>
       <c r="E18">
-        <v>0.02824703646325499</v>
+        <v>0.08134226381916143</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000867058199495588</v>
+        <v>0.002716678932909354</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.446754639082528</v>
+        <v>3.798027924134615</v>
       </c>
       <c r="J18">
-        <v>0.02558198893047603</v>
+        <v>0.01649749487268437</v>
       </c>
       <c r="K18">
-        <v>2.525525312342353</v>
+        <v>2.508478258108426</v>
       </c>
       <c r="L18">
-        <v>0.3792616082097311</v>
+        <v>0.6377629875881752</v>
       </c>
       <c r="M18">
-        <v>0.50951538555816</v>
+        <v>0.6603620468086859</v>
       </c>
       <c r="N18">
-        <v>3.732393721021964</v>
+        <v>5.950242986456658</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.248343758326541</v>
+        <v>2.506521311954941</v>
       </c>
       <c r="C19">
-        <v>0.3918278029320561</v>
+        <v>0.2622746621789247</v>
       </c>
       <c r="D19">
-        <v>0.2321218767465609</v>
+        <v>0.3950544521106281</v>
       </c>
       <c r="E19">
-        <v>0.02822394770051417</v>
+        <v>0.08135893687563378</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008677340013219399</v>
+        <v>0.002717065996991306</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.439213995080706</v>
+        <v>3.796745435667361</v>
       </c>
       <c r="J19">
-        <v>0.02537702960301402</v>
+        <v>0.01643407823066667</v>
       </c>
       <c r="K19">
-        <v>2.506234451941225</v>
+        <v>2.504814878878676</v>
       </c>
       <c r="L19">
-        <v>0.3774103114894558</v>
+        <v>0.6375459492050197</v>
       </c>
       <c r="M19">
-        <v>0.5061224818710102</v>
+        <v>0.6598156550287158</v>
       </c>
       <c r="N19">
-        <v>3.728890435768989</v>
+        <v>5.949354176515129</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.324244823643198</v>
+        <v>2.519999041763015</v>
       </c>
       <c r="C20">
-        <v>0.4067141473283868</v>
+        <v>0.2656447587438322</v>
       </c>
       <c r="D20">
-        <v>0.2374553116017637</v>
+        <v>0.3956706795415386</v>
       </c>
       <c r="E20">
-        <v>0.02832956219779703</v>
+        <v>0.08128506624005372</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000864699776881923</v>
+        <v>0.002715334806428887</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.473388417334604</v>
+        <v>3.802585354889956</v>
       </c>
       <c r="J20">
-        <v>0.02630184591970064</v>
+        <v>0.01671909344558031</v>
       </c>
       <c r="K20">
-        <v>2.593388685501822</v>
+        <v>2.521388265521296</v>
       </c>
       <c r="L20">
-        <v>0.3857861822643116</v>
+        <v>0.6385387714339856</v>
       </c>
       <c r="M20">
-        <v>0.5214567649724842</v>
+        <v>0.6622950692664844</v>
       </c>
       <c r="N20">
-        <v>3.744891456884915</v>
+        <v>5.953414553533008</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.584851688957883</v>
+        <v>2.56678848727006</v>
       </c>
       <c r="C21">
-        <v>0.4578666640937854</v>
+        <v>0.2771342913894159</v>
       </c>
       <c r="D21">
-        <v>0.2558712703265797</v>
+        <v>0.3979197648627917</v>
       </c>
       <c r="E21">
-        <v>0.02871528987668093</v>
+        <v>0.08105712681850008</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008546188581716192</v>
+        <v>0.00270970394033013</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.592672033870045</v>
+        <v>3.823406954371762</v>
       </c>
       <c r="J21">
-        <v>0.02945754768295572</v>
+        <v>0.01767036102743447</v>
       </c>
       <c r="K21">
-        <v>2.892675095568563</v>
+        <v>2.578609346427726</v>
       </c>
       <c r="L21">
-        <v>0.4147608645280059</v>
+        <v>0.6421565379197034</v>
       </c>
       <c r="M21">
-        <v>0.5742099030832151</v>
+        <v>0.6709857931941556</v>
       </c>
       <c r="N21">
-        <v>3.802994432331815</v>
+        <v>5.968118678023586</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.759830841954852</v>
+        <v>2.598490526188186</v>
       </c>
       <c r="C22">
-        <v>0.4922583025872029</v>
+        <v>0.2847681436968799</v>
       </c>
       <c r="D22">
-        <v>0.2683134546309134</v>
+        <v>0.3995226327186288</v>
       </c>
       <c r="E22">
-        <v>0.02899157298817379</v>
+        <v>0.08092319934823422</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008481046520256836</v>
+        <v>0.002706161607910506</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.674280050190262</v>
+        <v>3.837909848070723</v>
       </c>
       <c r="J22">
-        <v>0.03156271118727361</v>
+        <v>0.0182874297526574</v>
       </c>
       <c r="K22">
-        <v>3.09367762575215</v>
+        <v>2.617152953199422</v>
       </c>
       <c r="L22">
-        <v>0.4343807790247354</v>
+        <v>0.6447309439362527</v>
       </c>
       <c r="M22">
-        <v>0.6097085702678555</v>
+        <v>0.6769340533429684</v>
       </c>
       <c r="N22">
-        <v>3.844481456273343</v>
+        <v>5.978520954636082</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.665981652845517</v>
+        <v>2.581467853199854</v>
       </c>
       <c r="C23">
-        <v>0.4738072277860113</v>
+        <v>0.2806823500766598</v>
       </c>
       <c r="D23">
-        <v>0.2616331863434453</v>
+        <v>0.3986549978602199</v>
       </c>
       <c r="E23">
-        <v>0.02884182257134071</v>
+        <v>0.08099330579569042</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000851575319714886</v>
+        <v>0.00270803965289192</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.630368434458504</v>
+        <v>3.830087494907644</v>
       </c>
       <c r="J23">
-        <v>0.03043478494770824</v>
+        <v>0.01795850735913973</v>
       </c>
       <c r="K23">
-        <v>2.985864697985221</v>
+        <v>2.596476553292518</v>
       </c>
       <c r="L23">
-        <v>0.4238424976713446</v>
+        <v>0.6433377341817561</v>
       </c>
       <c r="M23">
-        <v>0.5906617975010633</v>
+        <v>0.673734806104143</v>
       </c>
       <c r="N23">
-        <v>3.821998721379316</v>
+        <v>5.972896511444389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.320056853682729</v>
+        <v>2.519253242814329</v>
       </c>
       <c r="C24">
-        <v>0.4058926575602015</v>
+        <v>0.2654590646626218</v>
       </c>
       <c r="D24">
-        <v>0.2371606451601735</v>
+        <v>0.3956361667238326</v>
       </c>
       <c r="E24">
-        <v>0.02832364901734596</v>
+        <v>0.08128904652441271</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008648659492534659</v>
+        <v>0.002715429175024865</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.471495712257507</v>
+        <v>3.802260139386746</v>
       </c>
       <c r="J24">
-        <v>0.02625089305284334</v>
+        <v>0.01670346586614357</v>
       </c>
       <c r="K24">
-        <v>2.588579699220475</v>
+        <v>2.520472355230567</v>
       </c>
       <c r="L24">
-        <v>0.3853232364676558</v>
+        <v>0.6384831888735079</v>
       </c>
       <c r="M24">
-        <v>0.5206102926839691</v>
+        <v>0.6621575561632085</v>
       </c>
       <c r="N24">
-        <v>3.743997090129909</v>
+        <v>5.953187584637249</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.963853336560163</v>
+        <v>2.456964199429564</v>
       </c>
       <c r="C25">
-        <v>0.3360530983414378</v>
+        <v>0.2495693852971215</v>
       </c>
       <c r="D25">
-        <v>0.2122805349605557</v>
+        <v>0.3929519185076344</v>
       </c>
       <c r="E25">
-        <v>0.02786124233827802</v>
+        <v>0.0816729845277111</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008795861986297456</v>
+        <v>0.002723995611647085</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.313777402226137</v>
+        <v>3.776084078833549</v>
       </c>
       <c r="J25">
-        <v>0.02188014723824239</v>
+        <v>0.01532919977552538</v>
       </c>
       <c r="K25">
-        <v>2.179577585836853</v>
+        <v>2.443404763897036</v>
       </c>
       <c r="L25">
-        <v>0.346317837339754</v>
+        <v>0.6341496549592307</v>
       </c>
       <c r="M25">
-        <v>0.4487905190962636</v>
+        <v>0.6508225485438501</v>
       </c>
       <c r="N25">
-        <v>3.673216223897697</v>
+        <v>5.935324001718868</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.415233185193614</v>
+        <v>1.71311312074198</v>
       </c>
       <c r="C2">
-        <v>0.2383185235071323</v>
+        <v>0.2868766561095697</v>
       </c>
       <c r="D2">
-        <v>0.3914680602252503</v>
+        <v>0.1950414840230366</v>
       </c>
       <c r="E2">
-        <v>0.08201193451269972</v>
+        <v>0.02759659388576985</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002730821100359145</v>
+        <v>0.000890821020745669</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.760105428490434</v>
+        <v>2.207410670666249</v>
       </c>
       <c r="J2">
-        <v>0.01429883411345045</v>
+        <v>0.01874400313982605</v>
       </c>
       <c r="K2">
-        <v>2.39086458928</v>
+        <v>1.891620627361078</v>
       </c>
       <c r="L2">
-        <v>0.6317356454288756</v>
+        <v>0.319401377124791</v>
       </c>
       <c r="M2">
-        <v>0.6434664213387506</v>
+        <v>0.3984921519050602</v>
       </c>
       <c r="N2">
-        <v>5.925080115494893</v>
+        <v>3.630904098958041</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.389524415994202</v>
+        <v>1.549061298052521</v>
       </c>
       <c r="C3">
-        <v>0.2309697580486443</v>
+        <v>0.2546515164152652</v>
       </c>
       <c r="D3">
-        <v>0.3907700879249347</v>
+        <v>0.1839341881916141</v>
       </c>
       <c r="E3">
-        <v>0.08227695199060303</v>
+        <v>0.02746142447181477</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002735772874106025</v>
+        <v>0.0008987112243176432</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.751328576363932</v>
+        <v>2.140555433177724</v>
       </c>
       <c r="J3">
-        <v>0.01358858181872691</v>
+        <v>0.01665240799728096</v>
       </c>
       <c r="K3">
-        <v>2.35787048725075</v>
+        <v>1.703132145062909</v>
       </c>
       <c r="L3">
-        <v>0.6305845061558841</v>
+        <v>0.3021176037473765</v>
       </c>
       <c r="M3">
-        <v>0.6390979676655562</v>
+        <v>0.3657391636384375</v>
       </c>
       <c r="N3">
-        <v>5.919947293002451</v>
+        <v>3.607616465805592</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.375007363536241</v>
+        <v>1.450844969381166</v>
       </c>
       <c r="C4">
-        <v>0.2265926391253004</v>
+        <v>0.2353212771747337</v>
       </c>
       <c r="D4">
-        <v>0.3904934815317631</v>
+        <v>0.177369398655685</v>
       </c>
       <c r="E4">
-        <v>0.08245716340387599</v>
+        <v>0.02739931504050208</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002738975076443583</v>
+        <v>0.000903700737083075</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.746951151975409</v>
+        <v>2.10183381663883</v>
       </c>
       <c r="J4">
-        <v>0.01314645017480487</v>
+        <v>0.01537975410270676</v>
       </c>
       <c r="K4">
-        <v>2.338898486097435</v>
+        <v>1.590226169168375</v>
       </c>
       <c r="L4">
-        <v>0.6301170709420347</v>
+        <v>0.2919286307990063</v>
       </c>
       <c r="M4">
-        <v>0.6367199781001744</v>
+        <v>0.3462058697009098</v>
       </c>
       <c r="N4">
-        <v>5.917686977726007</v>
+        <v>3.595761625733303</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.369410588133206</v>
+        <v>1.411400303324285</v>
       </c>
       <c r="C5">
-        <v>0.2248427713347496</v>
+        <v>0.227546885620086</v>
       </c>
       <c r="D5">
-        <v>0.3904190194196531</v>
+        <v>0.1747544318242831</v>
       </c>
       <c r="E5">
-        <v>0.08253501030780441</v>
+        <v>0.02737913402686942</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002740320817959985</v>
+        <v>0.0009057716167218475</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.745421742804027</v>
+        <v>2.086605501630004</v>
       </c>
       <c r="J5">
-        <v>0.01296474381947377</v>
+        <v>0.01486336523921672</v>
       </c>
       <c r="K5">
-        <v>2.331490688639576</v>
+        <v>1.544864571742636</v>
       </c>
       <c r="L5">
-        <v>0.6299868384497316</v>
+        <v>0.2878763334346033</v>
       </c>
       <c r="M5">
-        <v>0.6358274853006307</v>
+        <v>0.3383800258811611</v>
       </c>
       <c r="N5">
-        <v>5.916989906162982</v>
+        <v>3.591516100355832</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.368500521344401</v>
+        <v>1.404884072308818</v>
       </c>
       <c r="C6">
-        <v>0.2245542478372045</v>
+        <v>0.2262618348110976</v>
       </c>
       <c r="D6">
-        <v>0.3904089671143254</v>
+        <v>0.1743237474795194</v>
       </c>
       <c r="E6">
-        <v>0.08254820337305802</v>
+        <v>0.02737608935944458</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002740546746430583</v>
+        <v>0.0009061177893689921</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.745183154022214</v>
+        <v>2.084109178569307</v>
       </c>
       <c r="J6">
-        <v>0.01293447846822282</v>
+        <v>0.0147777346906981</v>
       </c>
       <c r="K6">
-        <v>2.330280163583836</v>
+        <v>1.537369744510698</v>
       </c>
       <c r="L6">
-        <v>0.6299688542626072</v>
+        <v>0.2872092940576607</v>
       </c>
       <c r="M6">
-        <v>0.6356839129189638</v>
+        <v>0.3370883449033961</v>
       </c>
       <c r="N6">
-        <v>5.916887686041463</v>
+        <v>3.59084568114487</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.374930591503784</v>
+        <v>1.450310725875141</v>
       </c>
       <c r="C7">
-        <v>0.2265689029168243</v>
+        <v>0.235216027663526</v>
       </c>
       <c r="D7">
-        <v>0.3904923223431354</v>
+        <v>0.1773338933739836</v>
       </c>
       <c r="E7">
-        <v>0.08245819540594024</v>
+        <v>0.02739902226008528</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00273899306034462</v>
+        <v>0.0009037285118003634</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.74692949561188</v>
+        <v>2.101626254548592</v>
       </c>
       <c r="J7">
-        <v>0.01314400585344444</v>
+        <v>0.0153727817527507</v>
       </c>
       <c r="K7">
-        <v>2.338797272398551</v>
+        <v>1.58961186011507</v>
       </c>
       <c r="L7">
-        <v>0.6301150705458411</v>
+        <v>0.2918735844999532</v>
       </c>
       <c r="M7">
-        <v>0.6367076315875266</v>
+        <v>0.3460997985096981</v>
       </c>
       <c r="N7">
-        <v>5.917676669857769</v>
+        <v>3.595702035671422</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.406105641426024</v>
+        <v>1.655993864699582</v>
       </c>
       <c r="C8">
-        <v>0.2357565656562315</v>
+        <v>0.2756633323971869</v>
       </c>
       <c r="D8">
-        <v>0.3911958892372667</v>
+        <v>0.1911562860714042</v>
       </c>
       <c r="E8">
-        <v>0.08209968936011514</v>
+        <v>0.0275455758566423</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002732494972490339</v>
+        <v>0.0008935122230949207</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.756869233987899</v>
+        <v>2.183854413590254</v>
       </c>
       <c r="J8">
-        <v>0.01405518114083293</v>
+        <v>0.01801998414649475</v>
       </c>
       <c r="K8">
-        <v>2.379221153337795</v>
+        <v>1.826004135547834</v>
       </c>
       <c r="L8">
-        <v>0.6312890854045037</v>
+        <v>0.3133499036831182</v>
       </c>
       <c r="M8">
-        <v>0.6418970553495953</v>
+        <v>0.3870722463074614</v>
       </c>
       <c r="N8">
-        <v>5.923125276453504</v>
+        <v>3.622349085034813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.477303745054883</v>
+        <v>2.081861244135268</v>
       </c>
       <c r="C9">
-        <v>0.254851637028878</v>
+        <v>0.3591867742068473</v>
       </c>
       <c r="D9">
-        <v>0.3937796472056476</v>
+        <v>0.2204796395137834</v>
       </c>
       <c r="E9">
-        <v>0.08153494325874444</v>
+        <v>0.02800477987312089</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002721029903768102</v>
+        <v>0.0008745702156859308</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.784389261517589</v>
+        <v>2.365265735733146</v>
       </c>
       <c r="J9">
-        <v>0.01579494035311768</v>
+        <v>0.02333720061184863</v>
       </c>
       <c r="K9">
-        <v>2.468710606763352</v>
+        <v>2.315077265602667</v>
       </c>
       <c r="L9">
-        <v>0.6354887834626197</v>
+        <v>0.3591528450252781</v>
       </c>
       <c r="M9">
-        <v>0.6544869171965857</v>
+        <v>0.4725424246958809</v>
       </c>
       <c r="N9">
-        <v>5.940888784238467</v>
+        <v>3.695431432154322</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.535759877843702</v>
+        <v>2.412460577433933</v>
       </c>
       <c r="C10">
-        <v>0.2695488496148357</v>
+        <v>0.4240215579465314</v>
       </c>
       <c r="D10">
-        <v>0.3964105550820562</v>
+        <v>0.243672099781918</v>
       </c>
       <c r="E10">
-        <v>0.08120368438787473</v>
+        <v>0.02845632623590078</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002713376875372282</v>
+        <v>0.0008612316932141776</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.809510541820288</v>
+        <v>2.513441162143025</v>
       </c>
       <c r="J10">
-        <v>0.01704568686866637</v>
+        <v>0.02737321868573517</v>
       </c>
       <c r="K10">
-        <v>2.540713803487506</v>
+        <v>2.694689093536738</v>
       </c>
       <c r="L10">
-        <v>0.6397297826324433</v>
+        <v>0.395558286316799</v>
       </c>
       <c r="M10">
-        <v>0.6652090788465372</v>
+        <v>0.5392967153309698</v>
       </c>
       <c r="N10">
-        <v>5.958269283962863</v>
+        <v>3.764030539052015</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.563691174437679</v>
+        <v>2.567703914238166</v>
       </c>
       <c r="C11">
-        <v>0.2763825277848184</v>
+        <v>0.4544985329101223</v>
       </c>
       <c r="D11">
-        <v>0.3977662738965932</v>
+        <v>0.2546550482835386</v>
       </c>
       <c r="E11">
-        <v>0.08107101904328218</v>
+        <v>0.02868891093517334</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002710060769834278</v>
+        <v>0.0008552675336785258</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.822005596589548</v>
+        <v>2.584736937124134</v>
       </c>
       <c r="J11">
-        <v>0.01760899248397152</v>
+        <v>0.02925071595985074</v>
       </c>
       <c r="K11">
-        <v>2.574834707441454</v>
+        <v>2.872979643230423</v>
       </c>
       <c r="L11">
-        <v>0.6419098685100408</v>
+        <v>0.4128448748234348</v>
       </c>
       <c r="M11">
-        <v>0.6704070022963577</v>
+        <v>0.5707342743955053</v>
       </c>
       <c r="N11">
-        <v>5.967119712353536</v>
+        <v>3.79903068147388</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.574460718210275</v>
+        <v>2.627281560990582</v>
       </c>
       <c r="C12">
-        <v>0.2789916896160776</v>
+        <v>0.4662022720694097</v>
       </c>
       <c r="D12">
-        <v>0.3983024690668202</v>
+        <v>0.2588831159984295</v>
       </c>
       <c r="E12">
-        <v>0.08102336337637794</v>
+        <v>0.02878111466267086</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002708828677751022</v>
+        <v>0.0008530219592922761</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.826890709020006</v>
+        <v>2.612355452812636</v>
       </c>
       <c r="J12">
-        <v>0.01782150672204708</v>
+        <v>0.02996889629681476</v>
       </c>
       <c r="K12">
-        <v>2.587952203701377</v>
+        <v>2.941410723937963</v>
       </c>
       <c r="L12">
-        <v>0.642771448624444</v>
+        <v>0.4195070518124453</v>
       </c>
       <c r="M12">
-        <v>0.6724213869030109</v>
+        <v>0.5828124128554037</v>
       </c>
       <c r="N12">
-        <v>5.97060708910476</v>
+        <v>3.812882319883187</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.572132739988717</v>
+        <v>2.614413711524719</v>
       </c>
       <c r="C13">
-        <v>0.2784288061289999</v>
+        <v>0.4636740563337014</v>
       </c>
       <c r="D13">
-        <v>0.3981859757603416</v>
+        <v>0.2579693371618959</v>
       </c>
       <c r="E13">
-        <v>0.08103351221268795</v>
+        <v>0.02876106951427637</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002709092981422591</v>
+        <v>0.0008535050428227582</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.825831784755351</v>
+        <v>2.606378676750964</v>
       </c>
       <c r="J13">
-        <v>0.01777577316613943</v>
+        <v>0.02981388109724037</v>
       </c>
       <c r="K13">
-        <v>2.585118367087034</v>
+        <v>2.926630218948503</v>
       </c>
       <c r="L13">
-        <v>0.6425842901644927</v>
+        <v>0.4180668666021745</v>
       </c>
       <c r="M13">
-        <v>0.6719855056674646</v>
+        <v>0.5802031239611765</v>
       </c>
       <c r="N13">
-        <v>5.969849972597558</v>
+        <v>3.809871636545068</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.564573332025532</v>
+        <v>2.572588995740659</v>
       </c>
       <c r="C14">
-        <v>0.2765967554959161</v>
+        <v>0.4554580132000012</v>
       </c>
       <c r="D14">
-        <v>0.3978099299765745</v>
+        <v>0.2550014678929529</v>
       </c>
       <c r="E14">
-        <v>0.08106704669808273</v>
+        <v>0.02869641248518917</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00270995893167203</v>
+        <v>0.0008550825419649464</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.822404421001082</v>
+        <v>2.586996322674423</v>
       </c>
       <c r="J14">
-        <v>0.0176264920398701</v>
+        <v>0.02930964887107379</v>
       </c>
       <c r="K14">
-        <v>2.575909949507178</v>
+        <v>2.878590467509753</v>
       </c>
       <c r="L14">
-        <v>0.6419800293783595</v>
+        <v>0.4133905767399852</v>
       </c>
       <c r="M14">
-        <v>0.6705718042678157</v>
+        <v>0.5717243554774782</v>
       </c>
       <c r="N14">
-        <v>5.967403896059352</v>
+        <v>3.800157961929159</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.559968053931073</v>
+        <v>2.547076002488666</v>
       </c>
       <c r="C15">
-        <v>0.2754773620964954</v>
+        <v>0.4504473232545365</v>
       </c>
       <c r="D15">
-        <v>0.3975825610513368</v>
+        <v>0.2531927725396628</v>
       </c>
       <c r="E15">
-        <v>0.08108792346405025</v>
+        <v>0.02865735288784776</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002710492427164075</v>
+        <v>0.0008560504266896807</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.820325053993216</v>
+        <v>2.575206784873032</v>
       </c>
       <c r="J15">
-        <v>0.0175349497117665</v>
+        <v>0.02900177087719413</v>
       </c>
       <c r="K15">
-        <v>2.570295143114208</v>
+        <v>2.849287556561592</v>
       </c>
       <c r="L15">
-        <v>0.6416145930495674</v>
+        <v>0.4105417084955292</v>
       </c>
       <c r="M15">
-        <v>0.669711866957492</v>
+        <v>0.5665540629080894</v>
       </c>
       <c r="N15">
-        <v>5.965923308470224</v>
+        <v>3.794287564484023</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.533961449988794</v>
+        <v>2.402420387329869</v>
       </c>
       <c r="C16">
-        <v>0.2691052392745235</v>
+        <v>0.4220513747199561</v>
       </c>
       <c r="D16">
-        <v>0.3963251501069891</v>
+        <v>0.242963612728829</v>
       </c>
       <c r="E16">
-        <v>0.08121271622646464</v>
+        <v>0.0284416914632466</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002713596906063875</v>
+        <v>0.0008616233856115113</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.808715439465701</v>
+        <v>2.508865153390673</v>
       </c>
       <c r="J16">
-        <v>0.01700876099864246</v>
+        <v>0.02725145804512863</v>
       </c>
       <c r="K16">
-        <v>2.538511430449915</v>
+        <v>2.683159316002815</v>
       </c>
       <c r="L16">
-        <v>0.6395923527918086</v>
+        <v>0.3944441458555019</v>
       </c>
       <c r="M16">
-        <v>0.6648758266966297</v>
+        <v>0.5372653570339239</v>
       </c>
       <c r="N16">
-        <v>5.957709896980077</v>
+        <v>3.761823879558563</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.518350249613206</v>
+        <v>2.314984385180196</v>
       </c>
       <c r="C17">
-        <v>0.2652341108531289</v>
+        <v>0.4048976877424195</v>
       </c>
       <c r="D17">
-        <v>0.3955944423976518</v>
+        <v>0.2368038041336149</v>
       </c>
       <c r="E17">
-        <v>0.0812938820721012</v>
+        <v>0.02831650009414677</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002715543650929849</v>
+        <v>0.0008650674079671897</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.801866690553055</v>
+        <v>2.469204356696125</v>
       </c>
       <c r="J17">
-        <v>0.01668452253735708</v>
+        <v>0.02618916750157041</v>
       </c>
       <c r="K17">
-        <v>2.519363215123747</v>
+        <v>2.582755073771608</v>
       </c>
       <c r="L17">
-        <v>0.6384159889445016</v>
+        <v>0.3847626383178095</v>
       </c>
       <c r="M17">
-        <v>0.6619911066221249</v>
+        <v>0.5195851034947268</v>
       </c>
       <c r="N17">
-        <v>5.952913124534774</v>
+        <v>3.742915601138208</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.50949716276449</v>
+        <v>2.265144096345523</v>
       </c>
       <c r="C18">
-        <v>0.2630214475023536</v>
+        <v>0.3951224796300608</v>
       </c>
       <c r="D18">
-        <v>0.3951891177175071</v>
+        <v>0.2333011103753364</v>
       </c>
       <c r="E18">
-        <v>0.08134226381916143</v>
+        <v>0.02824703646325855</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002716678932909354</v>
+        <v>0.0008670581994303069</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.798027924134615</v>
+        <v>2.44675463908257</v>
       </c>
       <c r="J18">
-        <v>0.01649749487268437</v>
+        <v>0.02558198893050445</v>
       </c>
       <c r="K18">
-        <v>2.508478258108426</v>
+        <v>2.525525312342353</v>
       </c>
       <c r="L18">
-        <v>0.6377629875881752</v>
+        <v>0.3792616082098164</v>
       </c>
       <c r="M18">
-        <v>0.6603620468086859</v>
+        <v>0.5095153855581671</v>
       </c>
       <c r="N18">
-        <v>5.950242986456658</v>
+        <v>3.732393721021992</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.506521311954941</v>
+        <v>2.248343758326826</v>
       </c>
       <c r="C19">
-        <v>0.2622746621789247</v>
+        <v>0.3918278029320561</v>
       </c>
       <c r="D19">
-        <v>0.3950544521106281</v>
+        <v>0.2321218767465467</v>
       </c>
       <c r="E19">
-        <v>0.08135893687563378</v>
+        <v>0.02822394770054526</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002717065996991306</v>
+        <v>0.0008677340012544864</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.796745435667361</v>
+        <v>2.439213995080749</v>
       </c>
       <c r="J19">
-        <v>0.01643407823066667</v>
+        <v>0.02537702960312771</v>
       </c>
       <c r="K19">
-        <v>2.504814878878676</v>
+        <v>2.50623445194114</v>
       </c>
       <c r="L19">
-        <v>0.6375459492050197</v>
+        <v>0.3774103114893421</v>
       </c>
       <c r="M19">
-        <v>0.6598156550287158</v>
+        <v>0.5061224818710102</v>
       </c>
       <c r="N19">
-        <v>5.949354176515129</v>
+        <v>3.728890435769046</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.519999041763015</v>
+        <v>2.324244823643369</v>
       </c>
       <c r="C20">
-        <v>0.2656447587438322</v>
+        <v>0.4067141473279889</v>
       </c>
       <c r="D20">
-        <v>0.3956706795415386</v>
+        <v>0.2374553116019769</v>
       </c>
       <c r="E20">
-        <v>0.08128506624005372</v>
+        <v>0.02832956219775795</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002715334806428887</v>
+        <v>0.0008646997769448928</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.802585354889956</v>
+        <v>2.47338841733459</v>
       </c>
       <c r="J20">
-        <v>0.01671909344558031</v>
+        <v>0.0263018459195159</v>
       </c>
       <c r="K20">
-        <v>2.521388265521296</v>
+        <v>2.593388685501793</v>
       </c>
       <c r="L20">
-        <v>0.6385387714339856</v>
+        <v>0.3857861822642406</v>
       </c>
       <c r="M20">
-        <v>0.6622950692664844</v>
+        <v>0.5214567649724486</v>
       </c>
       <c r="N20">
-        <v>5.953414553533008</v>
+        <v>3.744891456884915</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.56678848727006</v>
+        <v>2.58485168895777</v>
       </c>
       <c r="C21">
-        <v>0.2771342913894159</v>
+        <v>0.457866664093757</v>
       </c>
       <c r="D21">
-        <v>0.3979197648627917</v>
+        <v>0.2558712703266934</v>
       </c>
       <c r="E21">
-        <v>0.08105712681850008</v>
+        <v>0.02871528987669336</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00270970394033013</v>
+        <v>0.0008546188582397501</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.823406954371762</v>
+        <v>2.592672033870045</v>
       </c>
       <c r="J21">
-        <v>0.01767036102743447</v>
+        <v>0.02945754768303033</v>
       </c>
       <c r="K21">
-        <v>2.578609346427726</v>
+        <v>2.892675095568563</v>
       </c>
       <c r="L21">
-        <v>0.6421565379197034</v>
+        <v>0.4147608645279774</v>
       </c>
       <c r="M21">
-        <v>0.6709857931941556</v>
+        <v>0.5742099030832151</v>
       </c>
       <c r="N21">
-        <v>5.968118678023586</v>
+        <v>3.802994432331815</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.598490526188186</v>
+        <v>2.759830841954454</v>
       </c>
       <c r="C22">
-        <v>0.2847681436968799</v>
+        <v>0.4922583025869471</v>
       </c>
       <c r="D22">
-        <v>0.3995226327186288</v>
+        <v>0.2683134546308281</v>
       </c>
       <c r="E22">
-        <v>0.08092319934823422</v>
+        <v>0.02899157298815425</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002706161607910506</v>
+        <v>0.0008481046520924021</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.837909848070723</v>
+        <v>2.674280050190262</v>
       </c>
       <c r="J22">
-        <v>0.0182874297526574</v>
+        <v>0.03156271118745124</v>
       </c>
       <c r="K22">
-        <v>2.617152953199422</v>
+        <v>3.09367762575215</v>
       </c>
       <c r="L22">
-        <v>0.6447309439362527</v>
+        <v>0.4343807790247354</v>
       </c>
       <c r="M22">
-        <v>0.6769340533429684</v>
+        <v>0.6097085702678626</v>
       </c>
       <c r="N22">
-        <v>5.978520954636082</v>
+        <v>3.844481456273314</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.581467853199854</v>
+        <v>2.665981652845517</v>
       </c>
       <c r="C23">
-        <v>0.2806823500766598</v>
+        <v>0.4738072277857555</v>
       </c>
       <c r="D23">
-        <v>0.3986549978602199</v>
+        <v>0.2616331863436869</v>
       </c>
       <c r="E23">
-        <v>0.08099330579569042</v>
+        <v>0.02884182257133894</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00270803965289192</v>
+        <v>0.0008515753197260058</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.830087494907644</v>
+        <v>2.630368434458518</v>
       </c>
       <c r="J23">
-        <v>0.01795850735913973</v>
+        <v>0.03043478494777219</v>
       </c>
       <c r="K23">
-        <v>2.596476553292518</v>
+        <v>2.985864697985278</v>
       </c>
       <c r="L23">
-        <v>0.6433377341817561</v>
+        <v>0.4238424976714441</v>
       </c>
       <c r="M23">
-        <v>0.673734806104143</v>
+        <v>0.5906617975010633</v>
       </c>
       <c r="N23">
-        <v>5.972896511444389</v>
+        <v>3.821998721379316</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.519253242814329</v>
+        <v>2.320056853682672</v>
       </c>
       <c r="C24">
-        <v>0.2654590646626218</v>
+        <v>0.4058926575604573</v>
       </c>
       <c r="D24">
-        <v>0.3956361667238326</v>
+        <v>0.2371606451600314</v>
       </c>
       <c r="E24">
-        <v>0.08128904652441271</v>
+        <v>0.02832364901730777</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002715429175024865</v>
+        <v>0.0008648659492509385</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.802260139386746</v>
+        <v>2.47149571225755</v>
       </c>
       <c r="J24">
-        <v>0.01670346586614357</v>
+        <v>0.02625089305288597</v>
       </c>
       <c r="K24">
-        <v>2.520472355230567</v>
+        <v>2.588579699220588</v>
       </c>
       <c r="L24">
-        <v>0.6384831888735079</v>
+        <v>0.3853232364676131</v>
       </c>
       <c r="M24">
-        <v>0.6621575561632085</v>
+        <v>0.520610292683962</v>
       </c>
       <c r="N24">
-        <v>5.953187584637249</v>
+        <v>3.743997090129909</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.456964199429564</v>
+        <v>1.963853336560277</v>
       </c>
       <c r="C25">
-        <v>0.2495693852971215</v>
+        <v>0.3360530983416652</v>
       </c>
       <c r="D25">
-        <v>0.3929519185076344</v>
+        <v>0.2122805349609251</v>
       </c>
       <c r="E25">
-        <v>0.0816729845277111</v>
+        <v>0.02786124233831533</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002723995611647085</v>
+        <v>0.0008795861987549305</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.776084078833549</v>
+        <v>2.313777402226123</v>
       </c>
       <c r="J25">
-        <v>0.01532919977552538</v>
+        <v>0.02188014723826726</v>
       </c>
       <c r="K25">
-        <v>2.443404763897036</v>
+        <v>2.179577585836938</v>
       </c>
       <c r="L25">
-        <v>0.6341496549592307</v>
+        <v>0.3463178373397824</v>
       </c>
       <c r="M25">
-        <v>0.6508225485438501</v>
+        <v>0.4487905190962422</v>
       </c>
       <c r="N25">
-        <v>5.935324001718868</v>
+        <v>3.673216223897697</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.71311312074198</v>
+        <v>1.792179726963127</v>
       </c>
       <c r="C2">
-        <v>0.2868766561095697</v>
+        <v>0.5537690873144925</v>
       </c>
       <c r="D2">
-        <v>0.1950414840230366</v>
+        <v>0.2021270756353886</v>
       </c>
       <c r="E2">
-        <v>0.02759659388576985</v>
+        <v>0.3074561717805935</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000890821020745669</v>
+        <v>0.3913828013486125</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002471742740475347</v>
       </c>
       <c r="I2">
-        <v>2.207410670666249</v>
+        <v>0.006170542860906902</v>
       </c>
       <c r="J2">
-        <v>0.01874400313982605</v>
+        <v>0.2882357606007133</v>
       </c>
       <c r="K2">
-        <v>1.891620627361078</v>
+        <v>0.2196442132424075</v>
       </c>
       <c r="L2">
-        <v>0.319401377124791</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3984921519050602</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.630904098958041</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8432141374248232</v>
+      </c>
+      <c r="P2">
+        <v>0.7230218591575195</v>
+      </c>
+      <c r="Q2">
+        <v>1.383384179835275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.549061298052521</v>
+        <v>1.562550001377531</v>
       </c>
       <c r="C3">
-        <v>0.2546515164152652</v>
+        <v>0.491132947275247</v>
       </c>
       <c r="D3">
-        <v>0.1839341881916141</v>
+        <v>0.1755054644751795</v>
       </c>
       <c r="E3">
-        <v>0.02746142447181477</v>
+        <v>0.2752549522158958</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008987112243176432</v>
+        <v>0.3564757493746384</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001336789390854909</v>
       </c>
       <c r="I3">
-        <v>2.140555433177724</v>
+        <v>0.004466732986222244</v>
       </c>
       <c r="J3">
-        <v>0.01665240799728096</v>
+        <v>0.2759394897261132</v>
       </c>
       <c r="K3">
-        <v>1.703132145062909</v>
+        <v>0.216799807416109</v>
       </c>
       <c r="L3">
-        <v>0.3021176037473765</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3657391636384375</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.607616465805592</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7347648691072806</v>
+      </c>
+      <c r="P3">
+        <v>0.7326783258905749</v>
+      </c>
+      <c r="Q3">
+        <v>1.283342207159166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.450844969381166</v>
+        <v>1.420907071309983</v>
       </c>
       <c r="C4">
-        <v>0.2353212771747337</v>
+        <v>0.4528611656042756</v>
       </c>
       <c r="D4">
-        <v>0.177369398655685</v>
+        <v>0.1592779048969106</v>
       </c>
       <c r="E4">
-        <v>0.02739931504050208</v>
+        <v>0.2554511948289218</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000903700737083075</v>
+        <v>0.3353886609574488</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0007948051621957664</v>
       </c>
       <c r="I4">
-        <v>2.10183381663883</v>
+        <v>0.003559039368997041</v>
       </c>
       <c r="J4">
-        <v>0.01537975410270676</v>
+        <v>0.2686405770067921</v>
       </c>
       <c r="K4">
-        <v>1.590226169168375</v>
+        <v>0.2152652562605333</v>
       </c>
       <c r="L4">
-        <v>0.2919286307990063</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3462058697009098</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.595761625733303</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6681704519517169</v>
+      </c>
+      <c r="P4">
+        <v>0.7392200730694043</v>
+      </c>
+      <c r="Q4">
+        <v>1.223166410712878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.411400303324285</v>
+        <v>1.362095547483108</v>
       </c>
       <c r="C5">
-        <v>0.227546885620086</v>
+        <v>0.4379468046096804</v>
       </c>
       <c r="D5">
-        <v>0.1747544318242831</v>
+        <v>0.1526904338663542</v>
       </c>
       <c r="E5">
-        <v>0.02737913402686942</v>
+        <v>0.2473565501521691</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009057716167218475</v>
+        <v>0.3264705249301798</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0006099549304252605</v>
       </c>
       <c r="I5">
-        <v>2.086605501630004</v>
+        <v>0.003275836599682336</v>
       </c>
       <c r="J5">
-        <v>0.01486336523921672</v>
+        <v>0.26551903109997</v>
       </c>
       <c r="K5">
-        <v>1.544864571742636</v>
+        <v>0.2144098909073726</v>
       </c>
       <c r="L5">
-        <v>0.2878763334346033</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3383800258811611</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.591516100355832</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6410261644666591</v>
+      </c>
+      <c r="P5">
+        <v>0.7422897323062685</v>
+      </c>
+      <c r="Q5">
+        <v>1.197644830383808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.404884072308818</v>
+        <v>1.351188441102664</v>
       </c>
       <c r="C6">
-        <v>0.2262618348110976</v>
+        <v>0.4362585907265384</v>
       </c>
       <c r="D6">
-        <v>0.1743237474795194</v>
+        <v>0.1515970396937973</v>
       </c>
       <c r="E6">
-        <v>0.02737608935944458</v>
+        <v>0.2459954656739498</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009061177893689921</v>
+        <v>0.3244995493162364</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0005808434573941756</v>
       </c>
       <c r="I6">
-        <v>2.084109178569307</v>
+        <v>0.003304526112111184</v>
       </c>
       <c r="J6">
-        <v>0.0147777346906981</v>
+        <v>0.2647510385840661</v>
       </c>
       <c r="K6">
-        <v>1.537369744510698</v>
+        <v>0.2139280734149906</v>
       </c>
       <c r="L6">
-        <v>0.2872092940576607</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3370883449033961</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.59084568114487</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6365192720855646</v>
+      </c>
+      <c r="P6">
+        <v>0.7431214428904198</v>
+      </c>
+      <c r="Q6">
+        <v>1.191844893682514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.450310725875141</v>
+        <v>1.417013566672097</v>
       </c>
       <c r="C7">
-        <v>0.235216027663526</v>
+        <v>0.454812367838457</v>
       </c>
       <c r="D7">
-        <v>0.1773338933739836</v>
+        <v>0.1591860023532661</v>
       </c>
       <c r="E7">
-        <v>0.02739902226008528</v>
+        <v>0.2552981466114019</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009037285118003634</v>
+        <v>0.3339147960181776</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0007904012473793909</v>
       </c>
       <c r="I7">
-        <v>2.101626254548592</v>
+        <v>0.003742208953990023</v>
       </c>
       <c r="J7">
-        <v>0.0153727817527507</v>
+        <v>0.2679064793047985</v>
       </c>
       <c r="K7">
-        <v>1.58961186011507</v>
+        <v>0.2143170819864118</v>
       </c>
       <c r="L7">
-        <v>0.2918735844999532</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3460997985096981</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.595702035671422</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6678068128802721</v>
+      </c>
+      <c r="P7">
+        <v>0.7401286144092012</v>
+      </c>
+      <c r="Q7">
+        <v>1.21850333751533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.655993864699582</v>
+        <v>1.708988145477065</v>
       </c>
       <c r="C8">
-        <v>0.2756633323971869</v>
+        <v>0.5350065109732611</v>
       </c>
       <c r="D8">
-        <v>0.1911562860714042</v>
+        <v>0.1929167091428781</v>
       </c>
       <c r="E8">
-        <v>0.0275455758566423</v>
+        <v>0.2963012827513012</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008935122230949207</v>
+        <v>0.37747240207662</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002043214306908459</v>
       </c>
       <c r="I8">
-        <v>2.183854413590254</v>
+        <v>0.005774738666178614</v>
       </c>
       <c r="J8">
-        <v>0.01801998414649475</v>
+        <v>0.2830259414608349</v>
       </c>
       <c r="K8">
-        <v>1.826004135547834</v>
+        <v>0.217380169887825</v>
       </c>
       <c r="L8">
-        <v>0.3133499036831182</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3870722463074614</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.622349085034813</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8058200582968169</v>
+      </c>
+      <c r="P8">
+        <v>0.7274264199093636</v>
+      </c>
+      <c r="Q8">
+        <v>1.342886308264809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.081861244135268</v>
+        <v>2.282217109675628</v>
       </c>
       <c r="C9">
-        <v>0.3591867742068473</v>
+        <v>0.6901589968656197</v>
       </c>
       <c r="D9">
-        <v>0.2204796395137834</v>
+        <v>0.2601743414018785</v>
       </c>
       <c r="E9">
-        <v>0.02800477987312089</v>
+        <v>0.3766785963649966</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008745702156859308</v>
+        <v>0.468427136556187</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.005850094386250615</v>
       </c>
       <c r="I9">
-        <v>2.365265735733146</v>
+        <v>0.01069829381360066</v>
       </c>
       <c r="J9">
-        <v>0.02333720061184863</v>
+        <v>0.3160643007407771</v>
       </c>
       <c r="K9">
-        <v>2.315077265602667</v>
+        <v>0.2268705861806097</v>
       </c>
       <c r="L9">
-        <v>0.3591528450252781</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4725424246958809</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.695431432154322</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.076701215358476</v>
+      </c>
+      <c r="P9">
+        <v>0.7059483630926735</v>
+      </c>
+      <c r="Q9">
+        <v>1.605569960444996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.412460577433933</v>
+        <v>2.700693510684232</v>
       </c>
       <c r="C10">
-        <v>0.4240215579465314</v>
+        <v>0.8053924197230913</v>
       </c>
       <c r="D10">
-        <v>0.243672099781918</v>
+        <v>0.3104708256533826</v>
       </c>
       <c r="E10">
-        <v>0.02845632623590078</v>
+        <v>0.4079181660741042</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008612316932141776</v>
+        <v>0.5299786830965445</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.009433482288708106</v>
       </c>
       <c r="I10">
-        <v>2.513441162143025</v>
+        <v>0.01523626763085062</v>
       </c>
       <c r="J10">
-        <v>0.02737321868573517</v>
+        <v>0.3380496755945757</v>
       </c>
       <c r="K10">
-        <v>2.694689093536738</v>
+        <v>0.2316340509719979</v>
       </c>
       <c r="L10">
-        <v>0.395558286316799</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5392967153309698</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.764030539052015</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.238306531961257</v>
+      </c>
+      <c r="P10">
+        <v>0.69966908489193</v>
+      </c>
+      <c r="Q10">
+        <v>1.782551689689996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.567703914238166</v>
+        <v>2.899693149250481</v>
       </c>
       <c r="C11">
-        <v>0.4544985329101223</v>
+        <v>0.8496379379912469</v>
       </c>
       <c r="D11">
-        <v>0.2546550482835386</v>
+        <v>0.3332816133520566</v>
       </c>
       <c r="E11">
-        <v>0.02868891093517334</v>
+        <v>0.2236057069031396</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008552675336785258</v>
+        <v>0.4963510591801423</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02687373554878647</v>
       </c>
       <c r="I11">
-        <v>2.584736937124134</v>
+        <v>0.01713158199484166</v>
       </c>
       <c r="J11">
-        <v>0.02925071595985074</v>
+        <v>0.3173244019514243</v>
       </c>
       <c r="K11">
-        <v>2.872979643230423</v>
+        <v>0.2070587001214008</v>
       </c>
       <c r="L11">
-        <v>0.4128448748234348</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5707342743955053</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.79903068147388</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.000177916189521</v>
+      </c>
+      <c r="P11">
+        <v>0.7539073608232059</v>
+      </c>
+      <c r="Q11">
+        <v>1.668056733192543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.627281560990582</v>
+        <v>2.98535807303773</v>
       </c>
       <c r="C12">
-        <v>0.4662022720694097</v>
+        <v>0.8590022666155903</v>
       </c>
       <c r="D12">
-        <v>0.2588831159984295</v>
+        <v>0.3418427594777427</v>
       </c>
       <c r="E12">
-        <v>0.02878111466267086</v>
+        <v>0.120920671009543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008530219592922761</v>
+        <v>0.4578188696258252</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06448515433746849</v>
       </c>
       <c r="I12">
-        <v>2.612355452812636</v>
+        <v>0.01746536887016248</v>
       </c>
       <c r="J12">
-        <v>0.02996889629681476</v>
+        <v>0.2963996415480068</v>
       </c>
       <c r="K12">
-        <v>2.941410723937963</v>
+        <v>0.1874881845265222</v>
       </c>
       <c r="L12">
-        <v>0.4195070518124453</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5828124128554037</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3.812882319883187</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7892316370045833</v>
+      </c>
+      <c r="P12">
+        <v>0.806464805352519</v>
+      </c>
+      <c r="Q12">
+        <v>1.542629628729827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.614413711524719</v>
+        <v>2.983056430018109</v>
       </c>
       <c r="C13">
-        <v>0.4636740563337014</v>
+        <v>0.8454176270999199</v>
       </c>
       <c r="D13">
-        <v>0.2579693371618959</v>
+        <v>0.3397709537363625</v>
       </c>
       <c r="E13">
-        <v>0.02876106951427637</v>
+        <v>0.07411422104832388</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008535050428227582</v>
+        <v>0.4111402910987039</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1191035561746645</v>
       </c>
       <c r="I13">
-        <v>2.606378676750964</v>
+        <v>0.0168654713064269</v>
       </c>
       <c r="J13">
-        <v>0.02981388109724037</v>
+        <v>0.2729817653156772</v>
       </c>
       <c r="K13">
-        <v>2.926630218948503</v>
+        <v>0.1690910434633714</v>
       </c>
       <c r="L13">
-        <v>0.4180668666021745</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5802031239611765</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.809871636545068</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5881936397793268</v>
+      </c>
+      <c r="P13">
+        <v>0.860927515317556</v>
+      </c>
+      <c r="Q13">
+        <v>1.394626305432382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.572588995740659</v>
+        <v>2.940592300173705</v>
       </c>
       <c r="C14">
-        <v>0.4554580132000012</v>
+        <v>0.8262730062709238</v>
       </c>
       <c r="D14">
-        <v>0.2550014678929529</v>
+        <v>0.3335085621505556</v>
       </c>
       <c r="E14">
-        <v>0.02869641248518917</v>
+        <v>0.07415953370989836</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008550825419649464</v>
+        <v>0.3748392860048853</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1676772350953541</v>
       </c>
       <c r="I14">
-        <v>2.586996322674423</v>
+        <v>0.01610938006430018</v>
       </c>
       <c r="J14">
-        <v>0.02930964887107379</v>
+        <v>0.255446963155137</v>
       </c>
       <c r="K14">
-        <v>2.878590467509753</v>
+        <v>0.1567174435452223</v>
       </c>
       <c r="L14">
-        <v>0.4133905767399852</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5717243554774782</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3.800157961929159</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4564456090405997</v>
+      </c>
+      <c r="P14">
+        <v>0.9006131008818699</v>
+      </c>
+      <c r="Q14">
+        <v>1.28090607241819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.547076002488666</v>
+        <v>2.909985806633927</v>
       </c>
       <c r="C15">
-        <v>0.4504473232545365</v>
+        <v>0.8176395063644861</v>
       </c>
       <c r="D15">
-        <v>0.2531927725396628</v>
+        <v>0.3297184368823451</v>
       </c>
       <c r="E15">
-        <v>0.02865735288784776</v>
+        <v>0.07829647505217885</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008560504266896807</v>
+        <v>0.3637846549787724</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1799049425908805</v>
       </c>
       <c r="I15">
-        <v>2.575206784873032</v>
+        <v>0.01581497043985269</v>
       </c>
       <c r="J15">
-        <v>0.02900177087719413</v>
+        <v>0.2504257142726516</v>
       </c>
       <c r="K15">
-        <v>2.849287556561592</v>
+        <v>0.1536052991638321</v>
       </c>
       <c r="L15">
-        <v>0.4105417084955292</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5665540629080894</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3.794287564484023</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4236995424959176</v>
+      </c>
+      <c r="P15">
+        <v>0.9102156216282111</v>
+      </c>
+      <c r="Q15">
+        <v>1.246925325254466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.402420387329869</v>
+        <v>2.727647280547671</v>
       </c>
       <c r="C16">
-        <v>0.4220513747199561</v>
+        <v>0.7722062882541536</v>
       </c>
       <c r="D16">
-        <v>0.242963612728829</v>
+        <v>0.3082176797248479</v>
       </c>
       <c r="E16">
-        <v>0.0284416914632466</v>
+        <v>0.07574592234603372</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008616233856115113</v>
+        <v>0.3465127574809941</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1659795538177207</v>
       </c>
       <c r="I16">
-        <v>2.508865153390673</v>
+        <v>0.01401886564689736</v>
       </c>
       <c r="J16">
-        <v>0.02725145804512863</v>
+        <v>0.2454180819400023</v>
       </c>
       <c r="K16">
-        <v>2.683159316002815</v>
+        <v>0.1547126080701027</v>
       </c>
       <c r="L16">
-        <v>0.3944441458555019</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5372653570339239</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>3.761823879558563</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4016840841586671</v>
+      </c>
+      <c r="P16">
+        <v>0.898662938448112</v>
+      </c>
+      <c r="Q16">
+        <v>1.1996299736509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.314984385180196</v>
+        <v>2.61053874483656</v>
       </c>
       <c r="C17">
-        <v>0.4048976877424195</v>
+        <v>0.7476782848264634</v>
       </c>
       <c r="D17">
-        <v>0.2368038041336149</v>
+        <v>0.2951404578560215</v>
       </c>
       <c r="E17">
-        <v>0.02831650009414677</v>
+        <v>0.06841058188086135</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008650674079671897</v>
+        <v>0.3523891960245749</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1276728070474178</v>
       </c>
       <c r="I17">
-        <v>2.469204356696125</v>
+        <v>0.01308070352250645</v>
       </c>
       <c r="J17">
-        <v>0.02618916750157041</v>
+        <v>0.2508639539857569</v>
       </c>
       <c r="K17">
-        <v>2.582755073771608</v>
+        <v>0.1620644828473132</v>
       </c>
       <c r="L17">
-        <v>0.3847626383178095</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5195851034947268</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3.742915601138208</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4514858702079252</v>
+      </c>
+      <c r="P17">
+        <v>0.8689721596078783</v>
+      </c>
+      <c r="Q17">
+        <v>1.223366617591694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.265144096345523</v>
+        <v>2.539104750707963</v>
       </c>
       <c r="C18">
-        <v>0.3951224796300608</v>
+        <v>0.736372730233569</v>
       </c>
       <c r="D18">
-        <v>0.2333011103753364</v>
+        <v>0.287723526110284</v>
       </c>
       <c r="E18">
-        <v>0.02824703646325855</v>
+        <v>0.08458820256579358</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008670581994303069</v>
+        <v>0.3802988912734264</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07501010794099727</v>
       </c>
       <c r="I18">
-        <v>2.44675463908257</v>
+        <v>0.01252224805839841</v>
       </c>
       <c r="J18">
-        <v>0.02558198893050445</v>
+        <v>0.2665502252352923</v>
       </c>
       <c r="K18">
-        <v>2.525525312342353</v>
+        <v>0.1766371248497549</v>
       </c>
       <c r="L18">
-        <v>0.3792616082098164</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5095153855581671</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3.732393721021992</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5812668483680952</v>
+      </c>
+      <c r="P18">
+        <v>0.8219729292393367</v>
+      </c>
+      <c r="Q18">
+        <v>1.315306801187205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.248343758326826</v>
+        <v>2.503637165756459</v>
       </c>
       <c r="C19">
-        <v>0.3918278029320561</v>
+        <v>0.7408419532156358</v>
       </c>
       <c r="D19">
-        <v>0.2321218767465467</v>
+        <v>0.2853459938936709</v>
       </c>
       <c r="E19">
-        <v>0.02822394770054526</v>
+        <v>0.1612219555345433</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008677340012544864</v>
+        <v>0.4227939947786581</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03079446498285421</v>
       </c>
       <c r="I19">
-        <v>2.439213995080749</v>
+        <v>0.01278746698981781</v>
       </c>
       <c r="J19">
-        <v>0.02537702960312771</v>
+        <v>0.2885926323314436</v>
       </c>
       <c r="K19">
-        <v>2.50623445194114</v>
+        <v>0.1953095903129629</v>
       </c>
       <c r="L19">
-        <v>0.3774103114893421</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5061224818710102</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.728890435769046</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.786011480114496</v>
+      </c>
+      <c r="P19">
+        <v>0.7713614932337691</v>
+      </c>
+      <c r="Q19">
+        <v>1.451528226456077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.324244823643369</v>
+        <v>2.581056869223801</v>
       </c>
       <c r="C20">
-        <v>0.4067141473279889</v>
+        <v>0.7819083677048013</v>
       </c>
       <c r="D20">
-        <v>0.2374553116019769</v>
+        <v>0.2971752381240549</v>
       </c>
       <c r="E20">
-        <v>0.02832956219775795</v>
+        <v>0.3983819856868962</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008646997769448928</v>
+        <v>0.5090968508231839</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00837957241157028</v>
       </c>
       <c r="I20">
-        <v>2.47338841733459</v>
+        <v>0.01458301266850004</v>
       </c>
       <c r="J20">
-        <v>0.0263018459195159</v>
+        <v>0.329868036063317</v>
       </c>
       <c r="K20">
-        <v>2.593388685501793</v>
+        <v>0.2272817430725169</v>
       </c>
       <c r="L20">
-        <v>0.3857861822642406</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5214567649724486</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3.744891456884915</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.19428185442645</v>
+      </c>
+      <c r="P20">
+        <v>0.7044462225610886</v>
+      </c>
+      <c r="Q20">
+        <v>1.721033833461405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.58485168895777</v>
+        <v>2.901020775581117</v>
       </c>
       <c r="C21">
-        <v>0.457866664093757</v>
+        <v>0.8716743555984863</v>
       </c>
       <c r="D21">
-        <v>0.2558712703266934</v>
+        <v>0.3361908925560186</v>
       </c>
       <c r="E21">
-        <v>0.02871528987669336</v>
+        <v>0.4657367067869131</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008546188582397501</v>
+        <v>0.5689926514126427</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01181434317934441</v>
       </c>
       <c r="I21">
-        <v>2.592672033870045</v>
+        <v>0.01840221969946398</v>
       </c>
       <c r="J21">
-        <v>0.02945754768303033</v>
+        <v>0.3531516397902976</v>
       </c>
       <c r="K21">
-        <v>2.892675095568563</v>
+        <v>0.2367224731800057</v>
       </c>
       <c r="L21">
-        <v>0.4147608645279774</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5742099030832151</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3.802994432331815</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.377281944226823</v>
+      </c>
+      <c r="P21">
+        <v>0.6915912067065051</v>
+      </c>
+      <c r="Q21">
+        <v>1.897107365932413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.759830841954454</v>
+        <v>3.114752662516821</v>
       </c>
       <c r="C22">
-        <v>0.4922583025869471</v>
+        <v>0.9271584739533694</v>
       </c>
       <c r="D22">
-        <v>0.2683134546308281</v>
+        <v>0.3619274661293588</v>
       </c>
       <c r="E22">
-        <v>0.02899157298815425</v>
+        <v>0.4956628552953006</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008481046520924021</v>
+        <v>0.6069719190583811</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0141892944775332</v>
       </c>
       <c r="I22">
-        <v>2.674280050190262</v>
+        <v>0.0208323289723289</v>
       </c>
       <c r="J22">
-        <v>0.03156271118745124</v>
+        <v>0.3678525626573617</v>
       </c>
       <c r="K22">
-        <v>3.09367762575215</v>
+        <v>0.2428500409371388</v>
       </c>
       <c r="L22">
-        <v>0.4343807790247354</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6097085702678626</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3.844481456273314</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.477828916959155</v>
+      </c>
+      <c r="P22">
+        <v>0.6854134057783554</v>
+      </c>
+      <c r="Q22">
+        <v>2.008619823834351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.665981652845517</v>
+        <v>3.004509447500368</v>
       </c>
       <c r="C23">
-        <v>0.4738072277857555</v>
+        <v>0.8948603642728301</v>
       </c>
       <c r="D23">
-        <v>0.2616331863436869</v>
+        <v>0.3481732486086884</v>
       </c>
       <c r="E23">
-        <v>0.02884182257133894</v>
+        <v>0.4797276822865086</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008515753197260058</v>
+        <v>0.5882572480123969</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01290584047968324</v>
       </c>
       <c r="I23">
-        <v>2.630368434458518</v>
+        <v>0.01928001865627316</v>
       </c>
       <c r="J23">
-        <v>0.03043478494777219</v>
+        <v>0.3607879811587082</v>
       </c>
       <c r="K23">
-        <v>2.985864697985278</v>
+        <v>0.2406434166091067</v>
       </c>
       <c r="L23">
-        <v>0.4238424976714441</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5906617975010633</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3.821998721379316</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.424143957588683</v>
+      </c>
+      <c r="P23">
+        <v>0.6874238078091679</v>
+      </c>
+      <c r="Q23">
+        <v>1.954038173903115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.320056853682672</v>
+        <v>2.580373577395676</v>
       </c>
       <c r="C24">
-        <v>0.4058926575604573</v>
+        <v>0.7775121693699703</v>
       </c>
       <c r="D24">
-        <v>0.2371606451600314</v>
+        <v>0.2965781028595558</v>
       </c>
       <c r="E24">
-        <v>0.02832364901730777</v>
+        <v>0.4195089202361402</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008648659492509385</v>
+        <v>0.5161348908290364</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008507239905570008</v>
       </c>
       <c r="I24">
-        <v>2.47149571225755</v>
+        <v>0.01419975588388311</v>
       </c>
       <c r="J24">
-        <v>0.02625089305288597</v>
+        <v>0.3335001410304272</v>
       </c>
       <c r="K24">
-        <v>2.588579699220588</v>
+        <v>0.2312037366080837</v>
       </c>
       <c r="L24">
-        <v>0.3853232364676131</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.520610292683962</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>3.743997090129909</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.221326621175123</v>
+      </c>
+      <c r="P24">
+        <v>0.6984152444444831</v>
+      </c>
+      <c r="Q24">
+        <v>1.743555066682717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.963853336560277</v>
+        <v>2.121905278050122</v>
       </c>
       <c r="C25">
-        <v>0.3360530983416652</v>
+        <v>0.6519341038933817</v>
       </c>
       <c r="D25">
-        <v>0.2122805349609251</v>
+        <v>0.2418287658879592</v>
       </c>
       <c r="E25">
-        <v>0.02786124233831533</v>
+        <v>0.3548484897873152</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008795861987549305</v>
+        <v>0.4409706463568313</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004652584920672109</v>
       </c>
       <c r="I25">
-        <v>2.313777402226123</v>
+        <v>0.009545980780332641</v>
       </c>
       <c r="J25">
-        <v>0.02188014723826726</v>
+        <v>0.3056216752737981</v>
       </c>
       <c r="K25">
-        <v>2.179577585836938</v>
+        <v>0.2224067755738339</v>
       </c>
       <c r="L25">
-        <v>0.3463178373397824</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4487905190962422</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3.673216223897697</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.003350120290619</v>
+      </c>
+      <c r="P25">
+        <v>0.7129271506465074</v>
+      </c>
+      <c r="Q25">
+        <v>1.525319712916996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.792179726963127</v>
+        <v>1.737020988407323</v>
       </c>
       <c r="C2">
-        <v>0.5537690873144925</v>
+        <v>0.5842147534481512</v>
       </c>
       <c r="D2">
-        <v>0.2021270756353886</v>
+        <v>0.201910711759254</v>
       </c>
       <c r="E2">
-        <v>0.3074561717805935</v>
+        <v>0.3048936861715106</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3913828013486125</v>
+        <v>0.35275021179703</v>
       </c>
       <c r="H2">
-        <v>0.002471742740475347</v>
+        <v>0.002323364597995758</v>
       </c>
       <c r="I2">
-        <v>0.006170542860906902</v>
+        <v>0.005919489538547928</v>
       </c>
       <c r="J2">
-        <v>0.2882357606007133</v>
+        <v>0.3236122756026987</v>
       </c>
       <c r="K2">
-        <v>0.2196442132424075</v>
+        <v>0.2043801748167056</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1308898603317559</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03994489572357907</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8432141374248232</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7230218591575195</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.383384179835275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8429725852092389</v>
+      </c>
+      <c r="R2">
+        <v>0.7410854572950996</v>
+      </c>
+      <c r="S2">
+        <v>1.317988334928003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.562550001377531</v>
+        <v>1.520307597199434</v>
       </c>
       <c r="C3">
-        <v>0.491132947275247</v>
+        <v>0.5127589601779619</v>
       </c>
       <c r="D3">
-        <v>0.1755054644751795</v>
+        <v>0.1753676111344618</v>
       </c>
       <c r="E3">
-        <v>0.2752549522158958</v>
+        <v>0.2733296302835768</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3564757493746384</v>
+        <v>0.3219195538373469</v>
       </c>
       <c r="H3">
-        <v>0.001336789390854909</v>
+        <v>0.001259426908772454</v>
       </c>
       <c r="I3">
-        <v>0.004466732986222244</v>
+        <v>0.004433466428076738</v>
       </c>
       <c r="J3">
-        <v>0.2759394897261132</v>
+        <v>0.3118182766208974</v>
       </c>
       <c r="K3">
-        <v>0.216799807416109</v>
+        <v>0.2037591300794865</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1351926858704253</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03616374237227227</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7347648691072806</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7326783258905749</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.283342207159166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.734730735100527</v>
+      </c>
+      <c r="R3">
+        <v>0.7449436028353134</v>
+      </c>
+      <c r="S3">
+        <v>1.231539499318956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.420907071309983</v>
+        <v>1.386355032904589</v>
       </c>
       <c r="C4">
-        <v>0.4528611656042756</v>
+        <v>0.4692283014846623</v>
       </c>
       <c r="D4">
-        <v>0.1592779048969106</v>
+        <v>0.1591810147930914</v>
       </c>
       <c r="E4">
-        <v>0.2554511948289218</v>
+        <v>0.2539157834732535</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3353886609574488</v>
+        <v>0.30330316295899</v>
       </c>
       <c r="H4">
-        <v>0.0007948051621957664</v>
+        <v>0.0007505692763707383</v>
       </c>
       <c r="I4">
-        <v>0.003559039368997041</v>
+        <v>0.003637013993086136</v>
       </c>
       <c r="J4">
-        <v>0.2686405770067921</v>
+        <v>0.3046386640579684</v>
       </c>
       <c r="K4">
-        <v>0.2152652562605333</v>
+        <v>0.2035095325082885</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1379256560281981</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03435585921793738</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6681704519517169</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7392200730694043</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.223166410712878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6682428315535205</v>
+      </c>
+      <c r="R4">
+        <v>0.7479952172997102</v>
+      </c>
+      <c r="S4">
+        <v>1.179298123140001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.362095547483108</v>
+        <v>1.330631358300877</v>
       </c>
       <c r="C5">
-        <v>0.4379468046096804</v>
+        <v>0.4522349620869193</v>
       </c>
       <c r="D5">
-        <v>0.1526904338663542</v>
+        <v>0.1526086894707532</v>
       </c>
       <c r="E5">
-        <v>0.2473565501521691</v>
+        <v>0.2459805359189744</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3264705249301798</v>
+        <v>0.2953971234719717</v>
       </c>
       <c r="H5">
-        <v>0.0006099549304252605</v>
+        <v>0.000576812938215765</v>
       </c>
       <c r="I5">
-        <v>0.003275836599682336</v>
+        <v>0.003406916753461608</v>
       </c>
       <c r="J5">
-        <v>0.26551903109997</v>
+        <v>0.3015171529180165</v>
       </c>
       <c r="K5">
-        <v>0.2144098909073726</v>
+        <v>0.2031737605352539</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1389223442060654</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03368456092120908</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6410261644666591</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7422897323062685</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.197644830383808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6411375497845455</v>
+      </c>
+      <c r="R5">
+        <v>0.7496836239461757</v>
+      </c>
+      <c r="S5">
+        <v>1.156940715413583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.351188441102664</v>
+        <v>1.320248525351531</v>
       </c>
       <c r="C6">
-        <v>0.4362585907265384</v>
+        <v>0.4502348151020783</v>
       </c>
       <c r="D6">
-        <v>0.1515970396937973</v>
+        <v>0.151517765837383</v>
       </c>
       <c r="E6">
-        <v>0.2459954656739498</v>
+        <v>0.2446466278572714</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3244995493162364</v>
+        <v>0.2936105901438495</v>
       </c>
       <c r="H6">
-        <v>0.0005808434573941756</v>
+        <v>0.0005494379875889965</v>
       </c>
       <c r="I6">
-        <v>0.003304526112111184</v>
+        <v>0.003461496314836943</v>
       </c>
       <c r="J6">
-        <v>0.2647510385840661</v>
+        <v>0.300742921742021</v>
       </c>
       <c r="K6">
-        <v>0.2139280734149906</v>
+        <v>0.2027961770565163</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.138919094125832</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03350395239435855</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6365192720855646</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7431214428904198</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.191844893682514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6366370792839149</v>
+      </c>
+      <c r="R6">
+        <v>0.7503156655827539</v>
+      </c>
+      <c r="S6">
+        <v>1.151697800090304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.417013566672097</v>
+        <v>1.381522968922553</v>
       </c>
       <c r="C7">
-        <v>0.454812367838457</v>
+        <v>0.4705121185519374</v>
       </c>
       <c r="D7">
-        <v>0.1591860023532661</v>
+        <v>0.1590869885933444</v>
       </c>
       <c r="E7">
-        <v>0.2552981466114019</v>
+        <v>0.25385326184702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3339147960181776</v>
+        <v>0.3049680844777072</v>
       </c>
       <c r="H7">
-        <v>0.0007904012473793909</v>
+        <v>0.0007451009783483453</v>
       </c>
       <c r="I7">
-        <v>0.003742208953990023</v>
+        <v>0.003861128788857471</v>
       </c>
       <c r="J7">
-        <v>0.2679064793047985</v>
+        <v>0.2992362091106955</v>
       </c>
       <c r="K7">
-        <v>0.2143170819864118</v>
+        <v>0.2023103113073823</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1373272859661405</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0340455770078929</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6678068128802721</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7401286144092012</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.21850333751533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6675720968066727</v>
+      </c>
+      <c r="R7">
+        <v>0.7493443471488987</v>
+      </c>
+      <c r="S7">
+        <v>1.17194586552742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.708988145477065</v>
+        <v>1.654972274589653</v>
       </c>
       <c r="C8">
-        <v>0.5350065109732611</v>
+        <v>0.5600607529014781</v>
       </c>
       <c r="D8">
-        <v>0.1929167091428781</v>
+        <v>0.1927199260704242</v>
       </c>
       <c r="E8">
-        <v>0.2963012827513012</v>
+        <v>0.2942566464141265</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.37747240207662</v>
+        <v>0.3506437930477517</v>
       </c>
       <c r="H8">
-        <v>0.002043214306908459</v>
+        <v>0.001915189989252886</v>
       </c>
       <c r="I8">
-        <v>0.005774738666178614</v>
+        <v>0.005642080295424456</v>
       </c>
       <c r="J8">
-        <v>0.2830259414608349</v>
+        <v>0.3033381400982336</v>
       </c>
       <c r="K8">
-        <v>0.217380169887825</v>
+        <v>0.2019583903976674</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1313416740939779</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03788108595128037</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8058200582968169</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7274264199093636</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.342886308264809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8046194488242548</v>
+      </c>
+      <c r="R8">
+        <v>0.7449311510315582</v>
+      </c>
+      <c r="S8">
+        <v>1.272999330801042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.282217109675628</v>
+        <v>2.193473189402027</v>
       </c>
       <c r="C9">
-        <v>0.6901589968656197</v>
+        <v>0.7372702745562378</v>
       </c>
       <c r="D9">
-        <v>0.2601743414018785</v>
+        <v>0.2597245855415622</v>
       </c>
       <c r="E9">
-        <v>0.3766785963649966</v>
+        <v>0.373115834217927</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.468427136556187</v>
+        <v>0.4341415946846467</v>
       </c>
       <c r="H9">
-        <v>0.005850094386250615</v>
+        <v>0.005470789241045826</v>
       </c>
       <c r="I9">
-        <v>0.01069829381360066</v>
+        <v>0.009812880983744776</v>
       </c>
       <c r="J9">
-        <v>0.3160643007407771</v>
+        <v>0.3297115833718749</v>
       </c>
       <c r="K9">
-        <v>0.2268705861806097</v>
+        <v>0.2050983428085402</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1216243057405855</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05030190815625701</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.076701215358476</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7059483630926735</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.605569960444996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.074524739197344</v>
+      </c>
+      <c r="R9">
+        <v>0.7387028739163242</v>
+      </c>
+      <c r="S9">
+        <v>1.496523022327921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.700693510684232</v>
+        <v>2.579844657981425</v>
       </c>
       <c r="C10">
-        <v>0.8053924197230913</v>
+        <v>0.8643444855006237</v>
       </c>
       <c r="D10">
-        <v>0.3104708256533826</v>
+        <v>0.3097557050780324</v>
       </c>
       <c r="E10">
-        <v>0.4079181660741042</v>
+        <v>0.4037927664379524</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5299786830965445</v>
+        <v>0.5093803332335227</v>
       </c>
       <c r="H10">
-        <v>0.009433482288708106</v>
+        <v>0.008793545334178976</v>
       </c>
       <c r="I10">
-        <v>0.01523626763085062</v>
+        <v>0.01363550138093927</v>
       </c>
       <c r="J10">
-        <v>0.3380496755945757</v>
+        <v>0.3205191906021838</v>
       </c>
       <c r="K10">
-        <v>0.2316340509719979</v>
+        <v>0.2036079654700345</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1133073640868503</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06012115734915469</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.238306531961257</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.69966908489193</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.782551689689996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.233471379884634</v>
+      </c>
+      <c r="R10">
+        <v>0.7470618768275656</v>
+      </c>
+      <c r="S10">
+        <v>1.628172131489691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.899693149250481</v>
+        <v>2.761429478392586</v>
       </c>
       <c r="C11">
-        <v>0.8496379379912469</v>
+        <v>0.8998604022258689</v>
       </c>
       <c r="D11">
-        <v>0.3332816133520566</v>
+        <v>0.3324159077709936</v>
       </c>
       <c r="E11">
-        <v>0.2236057069031396</v>
+        <v>0.2199312258418438</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4963510591801423</v>
+        <v>0.5182778089530444</v>
       </c>
       <c r="H11">
-        <v>0.02687373554878647</v>
+        <v>0.02620078660348213</v>
       </c>
       <c r="I11">
-        <v>0.01713158199484166</v>
+        <v>0.01530070541176887</v>
       </c>
       <c r="J11">
-        <v>0.3173244019514243</v>
+        <v>0.2536534960765593</v>
       </c>
       <c r="K11">
-        <v>0.2070587001214008</v>
+        <v>0.178546451088863</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1014098249765123</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05452985977187907</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.000177916189521</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7539073608232059</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.668056733192543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9923469320218175</v>
+      </c>
+      <c r="R11">
+        <v>0.8171861192002723</v>
+      </c>
+      <c r="S11">
+        <v>1.48695460095945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.98535807303773</v>
+        <v>2.843030587235717</v>
       </c>
       <c r="C12">
-        <v>0.8590022666155903</v>
+        <v>0.9017543249890423</v>
       </c>
       <c r="D12">
-        <v>0.3418427594777427</v>
+        <v>0.3409234326924206</v>
       </c>
       <c r="E12">
-        <v>0.120920671009543</v>
+        <v>0.1169573097837109</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4578188696258252</v>
+        <v>0.4997259209971361</v>
       </c>
       <c r="H12">
-        <v>0.06448515433746849</v>
+        <v>0.06383839165048499</v>
       </c>
       <c r="I12">
-        <v>0.01746536887016248</v>
+        <v>0.01553775882370445</v>
       </c>
       <c r="J12">
-        <v>0.2963996415480068</v>
+        <v>0.2189029107443474</v>
       </c>
       <c r="K12">
-        <v>0.1874881845265222</v>
+        <v>0.1609679062352889</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09448483298232269</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04872726159501894</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7892316370045833</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.806464805352519</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.542629628729827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7809783125863561</v>
+      </c>
+      <c r="R12">
+        <v>0.8783486090951413</v>
+      </c>
+      <c r="S12">
+        <v>1.359754265264058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.983056430018109</v>
+        <v>2.850044593000746</v>
       </c>
       <c r="C13">
-        <v>0.8454176270999199</v>
+        <v>0.8834529008311733</v>
       </c>
       <c r="D13">
-        <v>0.3397709537363625</v>
+        <v>0.3388855786295011</v>
       </c>
       <c r="E13">
-        <v>0.07411422104832388</v>
+        <v>0.06966776191678292</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4111402910987039</v>
+        <v>0.4494490069104984</v>
       </c>
       <c r="H13">
-        <v>0.1191035561746645</v>
+        <v>0.1185309255254765</v>
       </c>
       <c r="I13">
-        <v>0.0168654713064269</v>
+        <v>0.01504342307769058</v>
       </c>
       <c r="J13">
-        <v>0.2729817653156772</v>
+        <v>0.2077773457837893</v>
       </c>
       <c r="K13">
-        <v>0.1690910434633714</v>
+        <v>0.1469953040325045</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09011317391959395</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04228049711014492</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5881936397793268</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.860927515317556</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.394626305432382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5815616380103634</v>
+      </c>
+      <c r="R13">
+        <v>0.9336440494697626</v>
+      </c>
+      <c r="S13">
+        <v>1.234070090624556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.940592300173705</v>
+        <v>2.820086762715107</v>
       </c>
       <c r="C14">
-        <v>0.8262730062709238</v>
+        <v>0.8621858907328601</v>
       </c>
       <c r="D14">
-        <v>0.3335085621505556</v>
+        <v>0.3326848735409413</v>
       </c>
       <c r="E14">
-        <v>0.07415953370989836</v>
+        <v>0.06954911693414267</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3748392860048853</v>
+        <v>0.4014945379720132</v>
       </c>
       <c r="H14">
-        <v>0.1676772350953541</v>
+        <v>0.1671711724878833</v>
       </c>
       <c r="I14">
-        <v>0.01610938006430018</v>
+        <v>0.01446247174744375</v>
       </c>
       <c r="J14">
-        <v>0.255446963155137</v>
+        <v>0.2086670860679547</v>
       </c>
       <c r="K14">
-        <v>0.1567174435452223</v>
+        <v>0.1385668666644051</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08797057618616932</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03751305333402399</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4564456090405997</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9006131008818699</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.28090607241819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4515207719824872</v>
+      </c>
+      <c r="R14">
+        <v>0.9698951592049383</v>
+      </c>
+      <c r="S14">
+        <v>1.145273040682667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.909985806633927</v>
+        <v>2.795152919305792</v>
       </c>
       <c r="C15">
-        <v>0.8176395063644861</v>
+        <v>0.8535073374686419</v>
       </c>
       <c r="D15">
-        <v>0.3297184368823451</v>
+        <v>0.3289272514372783</v>
       </c>
       <c r="E15">
-        <v>0.07829647505217885</v>
+        <v>0.07375382784250917</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3637846549787724</v>
+        <v>0.3839037700426076</v>
       </c>
       <c r="H15">
-        <v>0.1799049425908805</v>
+        <v>0.1794264036591215</v>
       </c>
       <c r="I15">
-        <v>0.01581497043985269</v>
+        <v>0.01427545484933201</v>
       </c>
       <c r="J15">
-        <v>0.2504257142726516</v>
+        <v>0.2124946400068239</v>
       </c>
       <c r="K15">
-        <v>0.1536052991638321</v>
+        <v>0.13682576807863</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08776116091684294</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03610467764405811</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4236995424959176</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9102156216282111</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.246925325254466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4194253755643729</v>
+      </c>
+      <c r="R15">
+        <v>0.9770108735115173</v>
+      </c>
+      <c r="S15">
+        <v>1.12146745110914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.727647280547671</v>
+        <v>2.635079283895152</v>
       </c>
       <c r="C16">
-        <v>0.7722062882541536</v>
+        <v>0.8110541626213035</v>
       </c>
       <c r="D16">
-        <v>0.3082176797248479</v>
+        <v>0.3075820078356628</v>
       </c>
       <c r="E16">
-        <v>0.07574592234603372</v>
+        <v>0.07195729736117684</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3465127574809941</v>
+        <v>0.3364493868212435</v>
       </c>
       <c r="H16">
-        <v>0.1659795538177207</v>
+        <v>0.165615705653309</v>
       </c>
       <c r="I16">
-        <v>0.01401886564689736</v>
+        <v>0.01288444886005014</v>
       </c>
       <c r="J16">
-        <v>0.2454180819400023</v>
+        <v>0.2462314626874118</v>
       </c>
       <c r="K16">
-        <v>0.1547126080701027</v>
+        <v>0.1413897311070826</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09144630400670906</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03435011667783172</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4016840841586671</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.898662938448112</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.1996299736509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.399608248580229</v>
+      </c>
+      <c r="R16">
+        <v>0.9516805053081328</v>
+      </c>
+      <c r="S16">
+        <v>1.10927028883728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.61053874483656</v>
+        <v>2.526423247108198</v>
       </c>
       <c r="C17">
-        <v>0.7476782848264634</v>
+        <v>0.7887185316720888</v>
       </c>
       <c r="D17">
-        <v>0.2951404578560215</v>
+        <v>0.2945815821132811</v>
       </c>
       <c r="E17">
-        <v>0.06841058188086135</v>
+        <v>0.06495154557758198</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3523891960245749</v>
+        <v>0.3289260570299888</v>
       </c>
       <c r="H17">
-        <v>0.1276728070474178</v>
+        <v>0.1273575787702015</v>
       </c>
       <c r="I17">
-        <v>0.01308070352250645</v>
+        <v>0.01215025275552417</v>
       </c>
       <c r="J17">
-        <v>0.2508639539857569</v>
+        <v>0.2688329644627601</v>
       </c>
       <c r="K17">
-        <v>0.1620644828473132</v>
+        <v>0.1492021326884938</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09561067978741278</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03530710909153711</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4514858702079252</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8689721596078783</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.223366617591694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4502244246953921</v>
+      </c>
+      <c r="R17">
+        <v>0.9151575206785481</v>
+      </c>
+      <c r="S17">
+        <v>1.144179745451424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.539104750707963</v>
+        <v>2.455254091381619</v>
       </c>
       <c r="C18">
-        <v>0.736372730233569</v>
+        <v>0.78080070542876</v>
       </c>
       <c r="D18">
-        <v>0.287723526110284</v>
+        <v>0.287196517435504</v>
       </c>
       <c r="E18">
-        <v>0.08458820256579358</v>
+        <v>0.08111502360242895</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3802988912734264</v>
+        <v>0.3488892457629333</v>
       </c>
       <c r="H18">
-        <v>0.07501010794099727</v>
+        <v>0.07469649731979189</v>
       </c>
       <c r="I18">
-        <v>0.01252224805839841</v>
+        <v>0.01161672458400531</v>
       </c>
       <c r="J18">
-        <v>0.2665502252352923</v>
+        <v>0.2910440393899023</v>
       </c>
       <c r="K18">
-        <v>0.1766371248497549</v>
+        <v>0.1621391252279984</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1012315393331367</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0391132299857162</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5812668483680952</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8219729292393367</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.315306801187205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.580222380244436</v>
+      </c>
+      <c r="R18">
+        <v>0.864526763572556</v>
+      </c>
+      <c r="S18">
+        <v>1.233505194927858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.503637165756459</v>
+        <v>2.41475544963248</v>
       </c>
       <c r="C19">
-        <v>0.7408419532156358</v>
+        <v>0.7902639625214078</v>
       </c>
       <c r="D19">
-        <v>0.2853459938936709</v>
+        <v>0.2848171784297762</v>
       </c>
       <c r="E19">
-        <v>0.1612219555345433</v>
+        <v>0.1574869236565206</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4227939947786581</v>
+        <v>0.3857939644724269</v>
       </c>
       <c r="H19">
-        <v>0.03079446498285421</v>
+        <v>0.03043584323199866</v>
       </c>
       <c r="I19">
-        <v>0.01278746698981781</v>
+        <v>0.01188002743272421</v>
       </c>
       <c r="J19">
-        <v>0.2885926323314436</v>
+        <v>0.3134487751416515</v>
       </c>
       <c r="K19">
-        <v>0.1953095903129629</v>
+        <v>0.1777781491977208</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1073901727207858</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04475414637165898</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.786011480114496</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7713614932337691</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.451528226456077</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7847926194781394</v>
+      </c>
+      <c r="R19">
+        <v>0.8120882632180297</v>
+      </c>
+      <c r="S19">
+        <v>1.358164954850224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.581056869223801</v>
+        <v>2.472825580455662</v>
       </c>
       <c r="C20">
-        <v>0.7819083677048013</v>
+        <v>0.8407930646216357</v>
       </c>
       <c r="D20">
-        <v>0.2971752381240549</v>
+        <v>0.2965498286913117</v>
       </c>
       <c r="E20">
-        <v>0.3983819856868962</v>
+        <v>0.394091565090676</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5090968508231839</v>
+        <v>0.473564945196344</v>
       </c>
       <c r="H20">
-        <v>0.00837957241157028</v>
+        <v>0.007828110181177905</v>
       </c>
       <c r="I20">
-        <v>0.01458301266850004</v>
+        <v>0.01337785959299875</v>
       </c>
       <c r="J20">
-        <v>0.329868036063317</v>
+        <v>0.3364464938117635</v>
       </c>
       <c r="K20">
-        <v>0.2272817430725169</v>
+        <v>0.2023112444126554</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1148327972009078</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0567536966563047</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.19428185442645</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7044462225610886</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.721033833461405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.191306001729686</v>
+      </c>
+      <c r="R20">
+        <v>0.7467427750830922</v>
+      </c>
+      <c r="S20">
+        <v>1.589650504974145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.901020775581117</v>
+        <v>2.74595461391516</v>
       </c>
       <c r="C21">
-        <v>0.8716743555984863</v>
+        <v>0.9263484729849836</v>
       </c>
       <c r="D21">
-        <v>0.3361908925560186</v>
+        <v>0.3352559038952023</v>
       </c>
       <c r="E21">
-        <v>0.4657367067869131</v>
+        <v>0.4627943077080303</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5689926514126427</v>
+        <v>0.606509083527726</v>
       </c>
       <c r="H21">
-        <v>0.01181434317934441</v>
+        <v>0.01093586812695077</v>
       </c>
       <c r="I21">
-        <v>0.01840221969946398</v>
+        <v>0.01638441073597985</v>
       </c>
       <c r="J21">
-        <v>0.3531516397902976</v>
+        <v>0.2594797070049424</v>
       </c>
       <c r="K21">
-        <v>0.2367224731800057</v>
+        <v>0.200235964907364</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1083956167085844</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06440082396518321</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.377281944226823</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6915912067065051</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.897107365932413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.365847003706236</v>
+      </c>
+      <c r="R21">
+        <v>0.7535680442186958</v>
+      </c>
+      <c r="S21">
+        <v>1.672335545223291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.114752662516821</v>
+        <v>2.927097109028978</v>
       </c>
       <c r="C22">
-        <v>0.9271584739533694</v>
+        <v>0.9773434616186307</v>
       </c>
       <c r="D22">
-        <v>0.3619274661293588</v>
+        <v>0.3607641935027459</v>
       </c>
       <c r="E22">
-        <v>0.4956628552953006</v>
+        <v>0.4938659328772346</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6069719190583811</v>
+        <v>0.7020929104035361</v>
       </c>
       <c r="H22">
-        <v>0.0141892944775332</v>
+        <v>0.01307343815240797</v>
       </c>
       <c r="I22">
-        <v>0.0208323289723289</v>
+        <v>0.01816013085940416</v>
       </c>
       <c r="J22">
-        <v>0.3678525626573617</v>
+        <v>0.2127147501163336</v>
       </c>
       <c r="K22">
-        <v>0.2428500409371388</v>
+        <v>0.1983953975920336</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1041862847899733</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06947126680190507</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.477828916959155</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6854134057783554</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.008619823834351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.460211204589967</v>
+      </c>
+      <c r="R22">
+        <v>0.7614737088907191</v>
+      </c>
+      <c r="S22">
+        <v>1.718167386853082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.004509447500368</v>
+        <v>2.83703470893613</v>
       </c>
       <c r="C23">
-        <v>0.8948603642728301</v>
+        <v>0.9493667327155038</v>
       </c>
       <c r="D23">
-        <v>0.3481732486086884</v>
+        <v>0.3471434515485612</v>
       </c>
       <c r="E23">
-        <v>0.4797276822865086</v>
+        <v>0.4770380310805535</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5882572480123969</v>
+        <v>0.642901701802117</v>
       </c>
       <c r="H23">
-        <v>0.01290584047968324</v>
+        <v>0.01192834441133256</v>
       </c>
       <c r="I23">
-        <v>0.01928001865627316</v>
+        <v>0.01691478875876751</v>
       </c>
       <c r="J23">
-        <v>0.3607879811587082</v>
+        <v>0.2461715911110147</v>
       </c>
       <c r="K23">
-        <v>0.2406434166091067</v>
+        <v>0.2010948986054508</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1069834623260988</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06748542834715465</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.424143957588683</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6874238078091679</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.954038173903115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.410714172989856</v>
+      </c>
+      <c r="R23">
+        <v>0.7544217429715445</v>
+      </c>
+      <c r="S23">
+        <v>1.705912906468228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.580373577395676</v>
+        <v>2.471814685738821</v>
       </c>
       <c r="C24">
-        <v>0.7775121693699703</v>
+        <v>0.8367025026396675</v>
       </c>
       <c r="D24">
-        <v>0.2965781028595558</v>
+        <v>0.2959537559398626</v>
       </c>
       <c r="E24">
-        <v>0.4195089202361402</v>
+        <v>0.4151701770642688</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5161348908290364</v>
+        <v>0.4794904705491945</v>
       </c>
       <c r="H24">
-        <v>0.008507239905570008</v>
+        <v>0.007947016505729376</v>
       </c>
       <c r="I24">
-        <v>0.01419975588388311</v>
+        <v>0.01289016010379385</v>
       </c>
       <c r="J24">
-        <v>0.3335001410304272</v>
+        <v>0.3406440603311722</v>
       </c>
       <c r="K24">
-        <v>0.2312037366080837</v>
+        <v>0.2057578086631722</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1161876995389264</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05799879438260547</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.221326621175123</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6984152444444831</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.743555066682717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.218358236886516</v>
+      </c>
+      <c r="R24">
+        <v>0.7399667369641207</v>
+      </c>
+      <c r="S24">
+        <v>1.610972858367717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.121905278050122</v>
+        <v>2.044396122292994</v>
       </c>
       <c r="C25">
-        <v>0.6519341038933817</v>
+        <v>0.6942153304274257</v>
       </c>
       <c r="D25">
-        <v>0.2418287658879592</v>
+        <v>0.2414617576261264</v>
       </c>
       <c r="E25">
-        <v>0.3548484897873152</v>
+        <v>0.3515749679548179</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4409706463568313</v>
+        <v>0.4043315773192973</v>
       </c>
       <c r="H25">
-        <v>0.004652584920672109</v>
+        <v>0.004357257347092247</v>
       </c>
       <c r="I25">
-        <v>0.009545980780332641</v>
+        <v>0.008986506015054019</v>
       </c>
       <c r="J25">
-        <v>0.3056216752737981</v>
+        <v>0.3277810931589045</v>
       </c>
       <c r="K25">
-        <v>0.2224067755738339</v>
+        <v>0.203010805377847</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1237252489691656</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04609957625621064</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.003350120290619</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7129271506465074</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.525319712916996</v>
+        <v>1.001916900524357</v>
+      </c>
+      <c r="R25">
+        <v>0.7411089576263592</v>
+      </c>
+      <c r="S25">
+        <v>1.431637581810975</v>
       </c>
     </row>
   </sheetData>
